--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB18D34C-B788-4EA2-AC72-BB29AB81D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C370F8-C2FC-453B-BE6F-BB1B3DBE4370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,9 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -943,6 +940,9 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Unclear</t>
+  </si>
+  <si>
     <t>6186.HK</t>
   </si>
   <si>
@@ -958,10 +958,10 @@
     <t>CN</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>disagree</t>
-  </si>
-  <si>
-    <t>Unclear</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2155,6 +2155,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3580,13 +3581,13 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3618,15 +3619,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>9067251704</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3674,15 +3676,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3696,25 +3698,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3723,16 +3725,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3741,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3872,7 +3874,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>53132</v>
@@ -4171,11 +4173,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.941197380361788E-2</v>
+        <v>2.1082544359245378E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4220,7 +4222,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4632,7 +4634,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4640,21 +4642,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4668,10 +4670,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4720,7 +4722,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4741,7 +4743,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4759,7 +4761,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4866,7 +4868,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4902,8 +4904,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4946,17 +4948,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.63</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4966,40 +4968,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>51048.627093519994</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>134013.9777639026</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5022,11 +5024,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5046,7 +5048,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5089,7 +5091,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5139,7 +5141,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5179,7 +5181,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5213,7 +5215,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7584617171330321</v>
+        <v>4.9554588712228904</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5229,12 +5231,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.3687554417683978E-2</v>
+        <v>2.2599748925710886E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5261,7 +5263,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.941197380361788E-2</v>
+        <v>2.1082544359245378E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5278,12 +5280,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5291,22 +5293,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6774697258116267</v>
+        <v>2.5210380413210487</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7234079217472109</v>
+        <v>4.7675206445063898</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3264349715430903</v>
-      </c>
-      <c r="G29" s="271">
+        <v>2.9659271074365279</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8464416710845315</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>4.1456701256577304</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5354,7 +5356,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5364,7 +5366,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5391,7 +5393,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6337,12 +6339,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6828,7 +6827,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6879,7 +6878,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6930,7 +6929,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6981,7 +6980,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7083,7 +7082,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7236,7 +7235,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8307,7 +8306,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8376,7 +8375,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8580,7 +8579,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10403,11 +10402,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9579880.5981465094</v>
+        <v>4364015.2804860482</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64576303839756477</v>
+        <v>0.83863102493729691</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10428,7 +10427,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1341470072338415</v>
+        <v>0.48129415868767284</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11494,11 +11493,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7584617171330321</v>
+        <v>4.9554588712228904</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2508329.5810169396</v>
+        <v>7068635.0195139525</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11530,11 +11529,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11545,11 +11544,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11561,11 +11560,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11779,19 +11778,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11801,18 +11800,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11889,7 +11888,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11949,7 +11948,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12012,7 +12011,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12042,7 +12041,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12179,17 +12178,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3687554417683978E-2</v>
+        <v>2.2599748925710886E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3687554417683978E-2</v>
+        <v>2.2599748925710886E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3687554417683978E-2</v>
+        <v>2.2599748925710886E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12230,17 +12229,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.941197380361788E-2</v>
+        <v>2.1082544359245378E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.941197380361788E-2</v>
+        <v>2.1082544359245378E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.941197380361788E-2</v>
+        <v>2.1082544359245378E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12271,15 +12270,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12300,14 +12299,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.7811111043806953</v>
+        <v>5.1876892450422041</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.7811111043806953</v>
+        <v>5.1876892450422041</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12325,14 +12324,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.1997512537986061</v>
+        <v>4.8036262789076574</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.1997512537986061</v>
+        <v>4.8036262789076574</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12358,7 +12357,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12375,21 +12374,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30569429.238290973</v>
+        <v>23386241.110857598</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3714106805709751</v>
+        <v>2.5791984025921333</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3714106805709751</v>
+        <v>2.5791984025921333</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7899053675957513</v>
+        <v>3.6643759669700575</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12399,14 +12398,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2692585.6480961768</v>
+        <v>7068635.0195139525</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.29695719673342119</v>
+        <v>0.77957855922270669</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12417,17 +12416,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12272466.246242685</v>
+        <v>11432650.300000001</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1504694751888715</v>
+        <v>1.0717418102238225</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3534935002222019</v>
+        <v>1.2608727179103796</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12438,27 +12437,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40149309.836437479</v>
+        <v>27750256.391343646</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6774697258116267</v>
+        <v>2.5210380413210487</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2249229590264257</v>
+        <v>2.8713616535932491</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3264349715430903</v>
+        <v>2.9659271074365279</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.427946984059755</v>
+        <v>3.0604925612798062</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.8464416710845315</v>
+        <v>4.1456701256577304</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12482,7 +12481,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12499,27 +12498,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27948643.567507356</v>
+        <v>21654875.043324273</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6200162748213098</v>
+        <v>2.0300135462993243</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0823720880250702</v>
+        <v>2.3882512309403814</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0823720880250702</v>
+        <v>2.3882512309403814</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0823720880250702</v>
+        <v>2.3882512309403814</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3792560468658666</v>
+        <v>3.3930892656219278</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12543,7 +12542,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12560,27 +12559,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33128541.733504221</v>
+        <v>23845116.94483396</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1487430003164683</v>
+        <v>2.2755257938101865</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.653647523525748</v>
+        <v>2.6298064422668155</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7044035297840803</v>
+        <v>2.6770891691884549</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7551595360424126</v>
+        <v>2.7243718961100938</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.112848858975199</v>
+        <v>3.7693796956398291</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C370F8-C2FC-453B-BE6F-BB1B3DBE4370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF39B198-4073-4930-90FF-5237706A9DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -941,6 +938,10 @@
   </si>
   <si>
     <t>Unclear</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>6186.HK</t>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,6 +2157,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3584,12 +3588,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>262</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>263</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>264</v>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>9067251704</v>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>265</v>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>266</v>
@@ -3695,25 +3699,25 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>267</v>
@@ -3722,16 +3726,16 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>268</v>
@@ -3740,10 +3744,10 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3874,7 +3878,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>53132</v>
@@ -4154,7 +4158,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.1484+0.1632</f>
@@ -4173,11 +4177,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.1082544359245378E-2</v>
+        <v>5.8384141639057044E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4222,13 +4226,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4614,7 +4618,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>25617273</v>
@@ -4634,7 +4638,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4642,26 +4646,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4670,10 +4674,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4722,7 +4726,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4743,7 +4747,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4761,7 +4765,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4818,7 +4822,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4905,7 +4909,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4946,19 +4950,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>5.73</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4966,42 +4970,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>134013.9777639026</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>51955.352263920009</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5024,16 +5028,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5048,7 +5052,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736236572265625</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5058,40 +5062,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5104,29 +5108,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5136,12 +5140,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5151,7 +5155,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5159,7 +5163,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5173,7 +5177,7 @@
         <v>0.35166796085418528</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5181,7 +5185,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5192,14 +5196,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,11 +5215,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>4.9554588712228904</v>
+        <v>1.7894188137397091</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5227,16 +5231,16 @@
         <v>2.7202256703967287E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>2.2599748925710886E-2</v>
+        <v>261</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>15.978076966992584</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5259,11 +5263,11 @@
         <v>0.2067479536230501</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.1082544359245378E-2</v>
+        <v>5.8384141639057044E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5280,12 +5284,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5293,42 +5297,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.5210380413210487</v>
+        <v>3.6587805322884401</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.7675206445063898</v>
+        <v>6.6899604109901096</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.9659271074365279</v>
-      </c>
-      <c r="G29" s="272">
+        <v>4.3044476850452238</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>4.1456701256577304</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>5.8173568791218351</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5338,7 +5342,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5349,14 +5353,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5366,7 +5370,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5376,14 +5380,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5393,7 +5397,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5408,14 +5412,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6400,16 +6404,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6427,7 +6431,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6460,7 +6464,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6827,7 +6831,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6878,7 +6882,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6929,7 +6933,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6980,7 +6984,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7082,7 +7086,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7235,7 +7239,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8306,7 +8310,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8375,7 +8379,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8579,7 +8583,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10402,11 +10406,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4364015.2804860482</v>
+        <v>9533952.5011961032</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.83863102493729691</v>
+        <v>0.64746132986886362</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10427,7 +10431,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0.48129415868767284</v>
+        <v>1.1288841742027473</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10477,7 +10481,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11493,11 +11497,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>4.9554588712228904</v>
+        <v>1.7894188137397091</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>7068635.0195139525</v>
+        <v>2552487.8361579883</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11529,11 +11533,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11544,11 +11548,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11560,11 +11564,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11778,19 +11782,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11800,18 +11804,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11888,7 +11892,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11948,7 +11952,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12011,7 +12015,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12041,7 +12045,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12174,28 +12178,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2599748925710886E-2</v>
+        <v>6.2585754347397007E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2599748925710886E-2</v>
+        <v>6.2585754347397007E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2599748925710886E-2</v>
+        <v>6.2585754347397007E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12225,21 +12229,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.1082544359245378E-2</v>
+        <v>5.8384141639057044E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.1082544359245378E-2</v>
+        <v>5.8384141639057044E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.1082544359245378E-2</v>
+        <v>5.8384141639057044E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12270,15 +12274,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12295,24 +12299,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>5.1876892450422041</v>
+        <v>6.7471064590986396</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.1876892450422041</v>
+        <v>6.7471064590986396</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12320,18 +12324,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.8036262789076574</v>
+        <v>6.170688803788984</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.8036262789076574</v>
+        <v>6.170688803788984</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12350,14 +12354,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12374,21 +12378,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>23386241.110857598</v>
+        <v>30416135.392824933</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.5791984025921333</v>
+        <v>3.3545043620446662</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.5791984025921333</v>
+        <v>3.3545043620446662</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.6643759669700575</v>
+        <v>4.7658858477187671</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12398,14 +12402,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>7068635.0195139525</v>
+        <v>2740411.325682254</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.77957855922270669</v>
+        <v>0.30223174729706981</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12416,17 +12420,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>11432650.300000001</v>
+        <v>12274363.826878358</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.0717418102238225</v>
+        <v>1.1506473618951167</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.2608727179103796</v>
+        <v>1.3537027787001374</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12437,27 +12441,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>27750256.391343646</v>
+        <v>39950087.894021034</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.5210380413210487</v>
+        <v>3.6587805322884401</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.8713616535932491</v>
+        <v>4.202919976642713</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.9659271074365279</v>
+        <v>4.3044476850452238</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>3.0604925612798062</v>
+        <v>4.4059753934477337</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>4.1456701256577304</v>
+        <v>5.8173568791218351</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12474,14 +12478,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12498,27 +12502,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21654875.043324273</v>
+        <v>27817629.26979344</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0300135462993243</v>
+        <v>2.6077344769080892</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3882512309403814</v>
+        <v>3.0679229140095168</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3882512309403814</v>
+        <v>3.0679229140095168</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3882512309403814</v>
+        <v>3.0679229140095168</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3930892656219278</v>
+        <v>4.358727495843211</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12528,21 +12532,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12555,31 +12559,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>23845116.94483396</v>
+        <v>32963281.294891357</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.2755257938101865</v>
+        <v>3.1332575045982649</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>2.6298064422668155</v>
+        <v>3.6354214453261147</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>2.6770891691884549</v>
+        <v>3.6861852995273701</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>2.7243718961100938</v>
+        <v>3.7369491537286255</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>3.7693796956398291</v>
+        <v>5.0880421874825235</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF39B198-4073-4930-90FF-5237706A9DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3991A815-8366-4DB1-8146-6D0AD5707863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -963,6 +960,10 @@
   </si>
   <si>
     <t>disagree</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3588,28 +3589,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45605</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3625,24 +3626,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>9067251704</v>
@@ -3650,15 +3651,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3682,15 +3683,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3699,61 +3700,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>19532203</v>
@@ -3822,7 +3823,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>6868850</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>8571978</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3878,7 +3879,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>53132</v>
@@ -3898,7 +3899,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>-99657</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>-337926</v>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>630037</v>
@@ -3958,7 +3959,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>630037</v>
@@ -3978,7 +3979,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -3996,7 +3997,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151">
@@ -4014,7 +4015,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4032,7 +4033,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4050,7 +4051,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4068,7 +4069,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4086,7 +4087,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4104,7 +4105,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4122,7 +4123,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4140,7 +4141,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4158,7 +4159,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.1484+0.1632</f>
@@ -4177,11 +4178,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8384141639057044E-2</v>
+        <v>5.8295938631626944E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4226,21 +4227,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>19073030</v>
@@ -4252,7 +4253,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>20972</v>
@@ -4264,7 +4265,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>308472</v>
@@ -4277,7 +4278,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4287,7 +4288,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4297,7 +4298,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4308,7 +4309,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>854264</v>
@@ -4320,7 +4321,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>2139247</v>
@@ -4333,7 +4334,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4341,24 +4342,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4369,7 +4370,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4380,7 +4381,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <v>300000</v>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <v>1800</v>
@@ -4406,7 +4407,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4417,7 +4418,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4428,7 +4429,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4438,7 +4439,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>113569</v>
@@ -4447,12 +4448,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59">
         <v>45190</v>
@@ -4461,12 +4462,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4474,12 +4475,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>9938000</v>
@@ -4492,7 +4493,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59">
         <v>2304520</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>15244</v>
@@ -4517,7 +4518,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>382475</v>
@@ -4530,7 +4531,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>112402</v>
@@ -4542,7 +4543,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>510909</v>
@@ -4550,7 +4551,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>28807</v>
@@ -4558,7 +4559,7 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59">
         <v>0</v>
@@ -4566,7 +4567,7 @@
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120">
         <v>9668</v>
@@ -4574,7 +4575,7 @@
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>6712617</v>
@@ -4582,7 +4583,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59">
         <v>756896</v>
@@ -4590,7 +4591,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>52067</v>
@@ -4598,19 +4599,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>1852861</v>
@@ -4618,7 +4619,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>25617273</v>
@@ -4626,19 +4627,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4646,15 +4647,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4662,10 +4663,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4675,19 +4676,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4705,7 +4706,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4726,7 +4727,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4747,7 +4748,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4765,7 +4766,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4786,7 +4787,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4804,7 +4805,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4822,7 +4823,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4950,7 +4951,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4965,12 +4966,12 @@
         <v>5.73</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4979,7 +4980,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4990,7 +4991,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4999,7 +5000,7 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
@@ -5011,7 +5012,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5026,7 +5027,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5037,7 +5038,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5049,10 +5050,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736236572265625</v>
+        <v>1.0720016956329346</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5062,40 +5063,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5108,29 +5109,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5140,12 +5141,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5155,29 +5156,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.35166796085418528</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5185,7 +5186,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5196,58 +5197,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7894188137397091</v>
+        <v>1.7921262428441824</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.978076966992584</v>
+        <v>16.002252140675672</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5256,61 +5257,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.2067479536230501</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8384141639057044E-2</v>
+        <v>5.8295938631626944E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6587805322884401</v>
+        <v>3.6515985420107824</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.6899604109901096</v>
+        <v>6.6768942482362901</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3044476850452238</v>
+        <v>4.2959982847185678</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8173568791218351</v>
+        <v>5.8059949984663399</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5318,21 +5319,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5342,7 +5343,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5353,14 +5354,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5370,7 +5371,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5380,14 +5381,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5397,7 +5398,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5412,14 +5413,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6399,21 +6400,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6424,14 +6425,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6453,7 +6454,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6464,7 +6465,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6475,7 +6476,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6525,7 +6526,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6576,7 +6577,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6627,7 +6628,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6678,7 +6679,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6729,7 +6730,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6780,7 +6781,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6831,7 +6832,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6882,7 +6883,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6933,7 +6934,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6984,7 +6985,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7035,7 +7036,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7086,7 +7087,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7137,7 +7138,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7188,7 +7189,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7239,7 +7240,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7290,7 +7291,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7341,7 +7342,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7392,7 +7393,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7443,7 +7444,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7494,7 +7495,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7545,7 +7546,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7596,7 +7597,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7647,7 +7648,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7698,7 +7699,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7749,7 +7750,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7800,7 +7801,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7851,7 +7852,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7902,7 +7903,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7953,7 +7954,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8004,7 +8005,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8055,7 +8056,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8106,7 +8107,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8157,7 +8158,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8208,7 +8209,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8259,7 +8260,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8310,7 +8311,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8328,7 +8329,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8379,7 +8380,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8430,7 +8431,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8481,7 +8482,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8532,7 +8533,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8583,7 +8584,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8634,7 +8635,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8685,7 +8686,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8703,7 +8704,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8754,7 +8755,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8805,7 +8806,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8822,7 +8823,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8872,7 +8873,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8922,7 +8923,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8972,7 +8973,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10331,7 +10332,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10341,12 +10342,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10360,7 +10361,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10370,7 +10371,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10388,10 +10389,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10401,21 +10402,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9533952.5011961032</v>
+        <v>9515409.1814961247</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64746132986886362</v>
+        <v>0.6481470095243923</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10426,19 +10427,19 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1288841742027473</v>
+        <v>1.1249863917095291</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10456,7 +10457,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10475,32 +10476,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10517,7 +10518,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10528,7 +10529,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10545,7 +10546,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10556,7 +10557,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10573,7 +10574,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10584,7 +10585,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10601,7 +10602,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10612,7 +10613,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10629,7 +10630,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10639,7 +10640,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10661,7 +10662,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10683,7 +10684,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10704,7 +10705,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10729,7 +10730,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10756,7 +10757,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10777,7 +10778,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10794,7 +10795,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10806,13 +10807,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10834,7 +10835,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10854,7 +10855,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10863,7 +10864,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10883,7 +10884,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10896,7 +10897,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10916,7 +10917,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10929,7 +10930,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10946,7 +10947,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10962,7 +10963,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10971,7 +10972,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10987,7 +10988,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10997,7 +10998,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11014,7 +11015,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11024,7 +11025,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11041,7 +11042,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11051,7 +11052,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11071,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11081,7 +11082,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11098,7 +11099,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11108,7 +11109,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11134,7 +11135,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11161,7 +11162,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11188,7 +11189,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11209,7 +11210,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11230,7 +11231,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11251,7 +11252,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11272,7 +11273,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11289,7 +11290,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11307,7 +11308,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11326,7 +11327,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11345,7 +11346,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11362,7 +11363,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11375,7 +11376,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11392,7 +11393,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11405,7 +11406,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11422,7 +11423,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11432,7 +11433,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11449,7 +11450,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11465,14 +11466,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11484,12 +11485,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11497,11 +11498,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7894188137397091</v>
+        <v>1.7921262428441824</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2552487.8361579883</v>
+        <v>2556349.8050851985</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11519,7 +11520,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11530,7 +11531,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11545,7 +11546,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11556,12 +11557,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11585,11 +11586,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11599,7 +11600,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11620,7 +11621,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11641,7 +11642,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11662,7 +11663,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11677,7 +11678,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11708,11 +11709,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11722,7 +11723,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11743,7 +11744,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11758,7 +11759,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11780,7 +11781,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11788,15 +11789,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11805,22 +11806,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11841,7 +11842,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11871,7 +11872,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11892,7 +11893,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11922,7 +11923,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11952,7 +11953,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11983,7 +11984,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12010,12 +12011,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12045,7 +12046,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12075,7 +12076,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12105,7 +12106,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12126,7 +12127,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12157,7 +12158,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12178,28 +12179,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2585754347397007E-2</v>
+        <v>6.2491203813626224E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2585754347397007E-2</v>
+        <v>6.2491203813626224E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2585754347397007E-2</v>
+        <v>6.2491203813626224E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12229,21 +12230,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8384141639057044E-2</v>
+        <v>5.8295938631626944E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8384141639057044E-2</v>
+        <v>5.8295938631626944E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8384141639057044E-2</v>
+        <v>5.8295938631626944E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12260,27 +12261,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12299,24 +12300,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.7471064590986396</v>
+        <v>6.7339165926539932</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.7471064590986396</v>
+        <v>6.7339165926539932</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12324,18 +12325,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.170688803788984</v>
+        <v>6.1587995897058816</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.170688803788984</v>
+        <v>6.1587995897058816</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12354,114 +12355,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30416135.392824933</v>
+        <v>30356675.124037765</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3545043620446662</v>
+        <v>3.3479466673066964</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3545043620446662</v>
+        <v>3.3479466673066964</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7658858477187671</v>
+        <v>4.7565690541861754</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2740411.325682254</v>
+        <v>2740411.3256822545</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.30223174729706981</v>
+        <v>0.30223174729706986</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12274363.826878358</v>
+        <v>12255820.507178379</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1506473618951167</v>
+        <v>1.1489090378406488</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3537027787001374</v>
+        <v>1.3516576915772338</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>39950087.894021034</v>
+        <v>39872084.305533893</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6587805322884401</v>
+        <v>3.6515985420107824</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.202919976642713</v>
+        <v>4.1946239578502755</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3044476850452238</v>
+        <v>4.2959982847185678</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4059753934477337</v>
+        <v>4.3973726115868601</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.8173568791218351</v>
+        <v>5.8059949984663399</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12471,58 +12472,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27817629.26979344</v>
+        <v>27764032.376449883</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6077344769080892</v>
+        <v>2.6027100923614546</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0679229140095168</v>
+        <v>3.0620118733664174</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0679229140095168</v>
+        <v>3.0620118733664174</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0679229140095168</v>
+        <v>3.0620118733664174</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.358727495843211</v>
+        <v>4.3503294310605298</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12532,58 +12533,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32963281.294891357</v>
+        <v>32898871.802953508</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1332575045982649</v>
+        <v>3.1271543171861182</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6354214453261147</v>
+        <v>3.6283179156083465</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6861852995273701</v>
+        <v>3.6790050790424926</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7369491537286255</v>
+        <v>3.7296922424766388</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0880421874825235</v>
+        <v>5.0781622147634344</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12592,7 +12593,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3991A815-8366-4DB1-8146-6D0AD5707863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E6709E-8A21-4439-AD55-1762A4436D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8295938631626944E-2</v>
+        <v>5.9143427305868586E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4873,7 +4873,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.73</v>
+        <v>5.65</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>51955.352263920009</v>
+        <v>51229.972127600005</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0720016956329346</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7921262428441824</v>
+        <v>1.7664461839972887</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.002252140675672</v>
+        <v>15.772949780813343</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8295938631626944E-2</v>
+        <v>5.9143427305868586E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6515985420107824</v>
+        <v>3.6688351971567417</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.6768942482362901</v>
+        <v>6.7078023018473667</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.2959982847185678</v>
+        <v>4.3162767025373432</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8059949984663399</v>
+        <v>5.8328715668237976</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9515409.1814961247</v>
+        <v>9558242.6339501105</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.6481470095243923</v>
+        <v>0.64656314927720115</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10432,7 +10432,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1249863917095291</v>
+        <v>1.1304721449622599</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7921262428441824</v>
+        <v>1.7664461839972889</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2556349.8050851985</v>
+        <v>2519718.8960239887</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2491203813626224E-2</v>
+        <v>6.3399681980629133E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2491203813626224E-2</v>
+        <v>6.3399681980629133E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.2491203813626224E-2</v>
+        <v>6.3399681980629133E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12234,17 +12234,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8295938631626944E-2</v>
+        <v>5.9143427305868586E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8295938631626944E-2</v>
+        <v>5.9143427305868586E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8295938631626944E-2</v>
+        <v>5.9143427305868586E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.7339165926539932</v>
+        <v>6.7652782164599605</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.7339165926539932</v>
+        <v>6.7652782164599605</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.1587995897058816</v>
+        <v>6.1858063010029349</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.1587995897058816</v>
+        <v>6.1858063010029349</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30356675.124037765</v>
+        <v>30498054.158384375</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3479466673066964</v>
+        <v>3.3635389370442006</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3479466673066964</v>
+        <v>3.3635389370442006</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7565690541861754</v>
+        <v>4.7787216495193618</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2740411.3256822545</v>
+        <v>2702150.7836133926</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.30223174729706986</v>
+        <v>0.29801210684615104</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12421,17 +12421,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12255820.507178379</v>
+        <v>12260393.417563504</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1489090378406488</v>
+        <v>1.1493377205279993</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3516576915772338</v>
+        <v>1.3521620241505874</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>39872084.305533893</v>
+        <v>40056296.79233449</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6515985420107824</v>
+        <v>3.6688351971567417</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.1946239578502755</v>
+        <v>4.2148645507260492</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.2959982847185678</v>
+        <v>4.3162767025373432</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.3973726115868601</v>
+        <v>4.4176888543486372</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.8059949984663399</v>
+        <v>5.8328715668237976</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27764032.376449883</v>
+        <v>27885779.349364229</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6027100923614546</v>
+        <v>2.6141231346321954</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0620118733664174</v>
+        <v>3.0754389819202297</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0620118733664174</v>
+        <v>3.0754389819202297</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0620118733664174</v>
+        <v>3.0754389819202297</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3503294310605298</v>
+        <v>4.3694058905686619</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32898871.802953508</v>
+        <v>33051508.564532097</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1271543171861182</v>
+        <v>3.1414791658944683</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6283179156083465</v>
+        <v>3.6451517663231394</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6790050790424926</v>
+        <v>3.6958578422287864</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7296922424766388</v>
+        <v>3.7465639181344335</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0781622147634344</v>
+        <v>5.1011387286962293</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E6709E-8A21-4439-AD55-1762A4436D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ACEF04-EC15-4AFF-9EF9-FA97AFDF0BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9143427305868586E-2</v>
+        <v>5.8940305017429827E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>51229.972127600005</v>
+        <v>51411.317161680003</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7664461839972887</v>
+        <v>1.7725337770491287</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.772949780813343</v>
+        <v>15.827307111573019</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9143427305868586E-2</v>
+        <v>5.8940305017429827E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6688351971567417</v>
+        <v>3.6653782154650805</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7078023018473667</v>
+        <v>6.7016222159482721</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3162767025373432</v>
+        <v>4.312209665253036</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8328715668237976</v>
+        <v>5.8274975790854544</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9558242.6339501105</v>
+        <v>9549820.9531755298</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64656314927720115</v>
+        <v>0.64687455927637694</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10432,7 +10432,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1304721449622599</v>
+        <v>1.1295814358111651</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7664461839972889</v>
+        <v>1.7725337770491285</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2519718.8960239887</v>
+        <v>2528402.4457312967</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3399681980629133E-2</v>
+        <v>6.3181942003816563E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3399681980629133E-2</v>
+        <v>6.3181942003816563E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3399681980629133E-2</v>
+        <v>6.3181942003816563E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12234,17 +12234,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9143427305868586E-2</v>
+        <v>5.8940305017429827E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9143427305868586E-2</v>
+        <v>5.8940305017429827E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9143427305868586E-2</v>
+        <v>5.8940305017429827E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.7652782164599605</v>
+        <v>6.7589851278468513</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.7652782164599605</v>
+        <v>6.7589851278468513</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.1858063010029349</v>
+        <v>6.1804533737245908</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.1858063010029349</v>
+        <v>6.1804533737245908</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30498054.158384375</v>
+        <v>30469684.74751829</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3635389370442006</v>
+        <v>3.3604101597925919</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3635389370442006</v>
+        <v>3.3604101597925919</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7787216495193618</v>
+        <v>4.7742764636991186</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2702150.7836133926</v>
+        <v>2711715.919130607</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.29801210684615104</v>
+        <v>0.2990670169588806</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12421,17 +12421,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12260393.417563504</v>
+        <v>12261536.872306138</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1493377205279993</v>
+        <v>1.1494449124934338</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3521620241505874</v>
+        <v>1.3522881323452163</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40056296.79233449</v>
+        <v>40019505.700693816</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6688351971567417</v>
+        <v>3.6653782154650805</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2148645507260492</v>
+        <v>4.2107880553271455</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3162767025373432</v>
+        <v>4.312209665253036</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4176888543486372</v>
+        <v>4.4136312751789264</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.8328715668237976</v>
+        <v>5.8274975790854544</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27885779.349364229</v>
+        <v>27861648.210803859</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6141231346321954</v>
+        <v>2.6118609863599391</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0754389819202297</v>
+        <v>3.0727776310116934</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0754389819202297</v>
+        <v>3.0727776310116934</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0754389819202297</v>
+        <v>3.0727776310116934</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3694058905686619</v>
+        <v>4.3656247970711197</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33051508.564532097</v>
+        <v>33020961.690325886</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1414791658944683</v>
+        <v>3.1386196009125098</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6451517663231394</v>
+        <v>3.6417828431694197</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6958578422287864</v>
+        <v>3.6924936481323645</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7465639181344335</v>
+        <v>3.7432044530953101</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.1011387286962293</v>
+        <v>5.0965611880782866</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ACEF04-EC15-4AFF-9EF9-FA97AFDF0BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC4C297-5134-4A9E-867C-1D2C0C3B04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8940305017429827E-2</v>
+        <v>5.8938472849841959E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7725337770491287</v>
+        <v>1.7725888782212103</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.827307111573019</v>
+        <v>15.827799120912434</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8940305017429827E-2</v>
+        <v>5.8938472849841959E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6653782154650805</v>
+        <v>3.665229992820922</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7016222159482721</v>
+        <v>6.7013524934968682</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.312209665253036</v>
+        <v>4.3120352856716728</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8274975790854544</v>
+        <v>5.8272630378233643</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9549820.9531755298</v>
+        <v>9549439.8015946504</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64687455927637694</v>
+        <v>0.64688865318668587</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10432,7 +10432,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1295814358111651</v>
+        <v>1.1295012402653888</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7725337770491285</v>
+        <v>1.7725888782212103</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2528402.4457312967</v>
+        <v>2528481.0439165938</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3181942003816563E-2</v>
+        <v>6.3179977984352403E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3181942003816563E-2</v>
+        <v>6.3179977984352403E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3181942003816563E-2</v>
+        <v>6.3179977984352403E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12234,17 +12234,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8940305017429827E-2</v>
+        <v>5.8938472849841959E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8940305017429827E-2</v>
+        <v>5.8938472849841959E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8940305017429827E-2</v>
+        <v>5.8938472849841959E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.7589851278468513</v>
+        <v>6.7587125965481532</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.7589851278468513</v>
+        <v>6.7587125965481532</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.1804533737245908</v>
+        <v>6.1802077885347417</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.1804533737245908</v>
+        <v>6.1802077885347417</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30469684.74751829</v>
+        <v>30468456.169174343</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3604101597925919</v>
+        <v>3.3602746635712388</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3604101597925919</v>
+        <v>3.3602746635712388</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7742764636991186</v>
+        <v>4.7740839585019055</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2711715.919130607</v>
+        <v>2711715.9191306075</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.2990670169588806</v>
+        <v>0.29906701695888066</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12421,17 +12421,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12261536.872306138</v>
+        <v>12261155.720725259</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1494449124934338</v>
+        <v>1.1494091818382888</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3522881323452163</v>
+        <v>1.3522460962803398</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40019505.700693816</v>
+        <v>40017895.970768996</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6653782154650805</v>
+        <v>3.665229992820922</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2107880553271455</v>
+        <v>4.2106168284506467</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.312209665253036</v>
+        <v>4.3120352856716728</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4136312751789264</v>
+        <v>4.4134537428926981</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.8274975790854544</v>
+        <v>5.8272630378233643</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27861648.210803859</v>
+        <v>27860541.106235377</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6118609863599391</v>
+        <v>2.6117572020034516</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0727776310116934</v>
+        <v>3.0726555317687669</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0727776310116934</v>
+        <v>3.0726555317687669</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0727776310116934</v>
+        <v>3.0726555317687669</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3656247970711197</v>
+        <v>4.3654513255262719</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33020961.690325886</v>
+        <v>33019631.859447788</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1386196009125098</v>
+        <v>3.1384935974121868</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6417828431694197</v>
+        <v>3.6416361801097068</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6924936481323645</v>
+        <v>3.6923454087202199</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7432044530953101</v>
+        <v>3.7430546373307325</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0965611880782866</v>
+        <v>5.0963571816748185</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC4C297-5134-4A9E-867C-1D2C0C3B04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C486E6E7-F800-4C53-83F8-B9B43249CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8938472849841959E-2</v>
+        <v>5.8936640682254092E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4665,7 +4665,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7725888782212103</v>
+        <v>1.7726439828191596</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.827799120912434</v>
+        <v>15.82829116084211</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8938472849841959E-2</v>
+        <v>5.8936640682254092E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.665229992820922</v>
+        <v>3.6650817720119115</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7013524934968682</v>
+        <v>6.7010827745729564</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3120352856716728</v>
+        <v>4.311860908249308</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8272630378233643</v>
+        <v>5.8270284996286579</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9549439.8015946504</v>
+        <v>9549058.6500137728</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64688865318668587</v>
+        <v>0.6469027470969948</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10432,7 +10432,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1295012402653888</v>
+        <v>1.1294210475224817</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7725888782212103</v>
+        <v>1.7726439828191596</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2528481.0439165938</v>
+        <v>2528559.6469886652</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3179977984352403E-2</v>
+        <v>6.3178013964888244E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3179977984352403E-2</v>
+        <v>6.3178013964888244E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3179977984352403E-2</v>
+        <v>6.3178013964888244E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12234,17 +12234,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8938472849841959E-2</v>
+        <v>5.8936640682254092E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8938472849841959E-2</v>
+        <v>5.8936640682254092E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8938472849841959E-2</v>
+        <v>5.8936640682254092E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.7587125965481532</v>
+        <v>6.758440069591976</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.7587125965481532</v>
+        <v>6.758440069591976</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.1802077885347417</v>
+        <v>6.1799622070389377</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.1802077885347417</v>
+        <v>6.1799622070389377</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30468456.169174343</v>
+        <v>30467227.610406589</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3602746635712388</v>
+        <v>3.3601391695088858</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3602746635712388</v>
+        <v>3.3601391695088858</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7740839585019055</v>
+        <v>4.7738914563720751</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,17 +12421,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12261155.720725259</v>
+        <v>12260774.569144381</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1494091818382888</v>
+        <v>1.1493734511831439</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3522460962803398</v>
+        <v>1.3522040602154635</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40017895.970768996</v>
+        <v>40016286.26042036</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.665229992820922</v>
+        <v>3.6650817720119115</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2106168284506467</v>
+        <v>4.2104456037331488</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3120352856716728</v>
+        <v>4.311860908249308</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4134537428926981</v>
+        <v>4.4132762127654681</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.8272630378233643</v>
+        <v>5.8270284996286579</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27860541.106235377</v>
+        <v>27859434.018319745</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6117572020034516</v>
+        <v>2.6116534192080683</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0726555317687669</v>
+        <v>3.0725334343624331</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0726555317687669</v>
+        <v>3.0725334343624331</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0726555317687669</v>
+        <v>3.0725334343624331</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3654513255262719</v>
+        <v>4.3652778565907493</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33019631.859447788</v>
+        <v>33018302.046684224</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1384935974121868</v>
+        <v>3.1383675956099899</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6416361801097068</v>
+        <v>3.6414895190477909</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6923454087202199</v>
+        <v>3.6921971713058706</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7430546373307325</v>
+        <v>3.7429048235639506</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0963571816748185</v>
+        <v>5.096153178109704</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C486E6E7-F800-4C53-83F8-B9B43249CA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB4B0A3-C90E-4A17-B874-FD84DE12552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8936640682254092E-2</v>
+        <v>5.8934808514666231E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5102,7 +5102,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5149,7 +5149,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7726439828191596</v>
+        <v>1.7726990908432965</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.82829116084211</v>
+        <v>15.828783231364895</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8936640682254092E-2</v>
+        <v>5.8934808514666231E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6650817720119115</v>
+        <v>3.789107601993019</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7010827745729564</v>
+        <v>7.0203307653364488</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.311860908249308</v>
+        <v>4.4577736494035518</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8270284996286579</v>
+        <v>6.1046354481186516</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9549058.6500137728</v>
+        <v>9548677.4984328952</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.6469027470969948</v>
+        <v>0.64691684100730362</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10432,7 +10432,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1294210475224817</v>
+        <v>1.1293408575824442</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11498,11 +11498,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7726439828191596</v>
+        <v>1.7726990908432965</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2528559.6469886652</v>
+        <v>2528638.2549479669</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3178013964888244E-2</v>
+        <v>6.3176049945424098E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3178013964888244E-2</v>
+        <v>6.3176049945424098E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3178013964888244E-2</v>
+        <v>6.3176049945424098E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12234,17 +12234,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8936640682254092E-2</v>
+        <v>5.8934808514666231E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8936640682254092E-2</v>
+        <v>5.8934808514666231E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8936640682254092E-2</v>
+        <v>5.8934808514666231E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>6.758440069591976</v>
+        <v>7.0520009185860211</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>6.758440069591976</v>
+        <v>7.0520009185860211</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12329,14 +12329,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.1799622070389377</v>
+        <v>6.4483999609430969</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.1799622070389377</v>
+        <v>6.4483999609430969</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30467227.610406589</v>
+        <v>31790607.726485025</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3601391695088858</v>
+        <v>3.5060907940231392</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3601391695088858</v>
+        <v>3.5060907940231392</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7738914563720751</v>
+        <v>5.0515404409269449</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,17 +12421,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12260774.569144381</v>
+        <v>12260393.417563504</v>
       </c>
       <c r="D99" s="215"/>
       <c r="E99" s="146">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1493734511831439</v>
+        <v>1.1493377205279993</v>
       </c>
       <c r="F99" s="215"/>
       <c r="H99" s="146">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3522040602154635</v>
+        <v>1.3521620241505874</v>
       </c>
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40016286.26042036</v>
+        <v>41339285.224917918</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6650817720119115</v>
+        <v>3.789107601993019</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2104456037331488</v>
+        <v>4.3563614975922578</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.311860908249308</v>
+        <v>4.4577736494035518</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4132762127654681</v>
+        <v>4.5591858012148458</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.8270284996286579</v>
+        <v>6.1046354481186516</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12503,27 +12503,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27859434.018319745</v>
+        <v>29069558.553450543</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6116534192080683</v>
+        <v>2.7250952744074124</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0725334343624331</v>
+        <v>3.205994440479309</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0725334343624331</v>
+        <v>3.205994440479309</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0725334343624331</v>
+        <v>3.205994440479309</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3652778565907493</v>
+        <v>4.6191646254786916</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33018302.046684224</v>
+        <v>34284892.382866971</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1383675956099899</v>
+        <v>3.2571014382002157</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6414895190477909</v>
+        <v>3.7811779690357836</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6921971713058706</v>
+        <v>3.8318840449414306</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7429048235639506</v>
+        <v>3.8825901208470777</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.096153178109704</v>
+        <v>5.3619000367986711</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB4B0A3-C90E-4A17-B874-FD84DE12552B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51F98A9-78DF-4168-93C0-1E433CA57726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45605</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>9067251704</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,422 +3809,422 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>19532203</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>21310933</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>6868850</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>7360333</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>8571978</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>8215637</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>53132</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>33640</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-99657</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>6058</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-337926</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>827860</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>630037</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>543737</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>630037</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>543737</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>22554271</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <v>431184</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>2258059</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>7382230</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>2478102</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>592316</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>1044096</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>26334346</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>1389487</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <v>19968596</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.1484+0.1632</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.8934808514666231E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>5.919391009542678E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4229,10 +4233,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4341,7 +4345,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4353,7 +4357,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4373,7 +4377,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4447,7 +4451,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4461,7 +4465,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4474,7 +4478,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4530,16 +4534,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>112402</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4641,7 +4645,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4649,19 +4653,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4675,14 +4680,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4694,12 +4699,12 @@
         <f>C25</f>
         <v>19532203</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>19532203</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>19532203</v>
       </c>
@@ -4712,15 +4717,15 @@
         <f>C26</f>
         <v>6868850</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>6868850</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>6868850</v>
       </c>
@@ -4733,15 +4738,15 @@
         <f>C27+C28</f>
         <v>8571978</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>8571978</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>8571978</v>
       </c>
@@ -4754,12 +4759,12 @@
         <f>C29</f>
         <v>53132</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>53131.999999999993</v>
       </c>
@@ -4772,15 +4777,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4793,12 +4798,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4811,12 +4816,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4825,16 +4830,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.31159999999999999</v>
       </c>
@@ -4953,17 +4958,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4973,40 +4978,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>51411.317161680003</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>51139.299610559996</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5014,11 +5019,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5029,22 +5034,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5073,7 +5078,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5084,7 +5089,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5098,11 +5103,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5111,7 +5116,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5122,7 +5127,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5133,10 +5138,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5148,10 +5153,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5173,14 +5178,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.35166796085418528</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5188,7 +5193,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.43886385985236792</v>
       </c>
@@ -5199,7 +5204,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5211,46 +5216,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7726990908432965</v>
+        <v>1.7649396923526441</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.828783231364895</v>
+        <v>15.759498016886734</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.93286630876064991</v>
       </c>
@@ -5259,16 +5264,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.2067479536230501</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8934808514666231E-2</v>
+        <v>5.919391009542678E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5287,10 +5292,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5298,22 +5303,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.789107601993019</v>
+        <v>3.6664104387480889</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.0203307653364488</v>
+        <v>6.7033346914712189</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4577736494035518</v>
-      </c>
-      <c r="G29" s="273">
+        <v>4.3134240455859869</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.1046354481186516</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>5.828986688235843</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5325,17 +5330,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5345,7 +5350,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5353,17 +5358,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5373,24 +5378,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5400,7 +5405,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>disagree</v>
       </c>
@@ -5419,10 +5424,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6404,16 +6409,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6427,11 +6432,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6464,7 +6469,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6528,47 +6533,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>19532203</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>21310933</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6630,47 +6635,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6868850</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>7360333</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6681,47 +6686,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>12663353</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>13950600</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6732,47 +6737,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>8571978</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>8215637</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6783,47 +6788,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6834,47 +6839,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8077.333333333333</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6882,50 +6887,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.26872993625697511</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6933,50 +6938,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>4091375</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>5726885.666666667</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6984,50 +6989,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.28558465488252288</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7038,47 +7043,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-337926</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>827860</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7089,47 +7094,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>53132</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>33640</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7140,47 +7145,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.2256320498000146E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>2.5514462459245685E-2</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7191,47 +7196,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>630037</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>543737</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7242,47 +7247,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.2256320498000146E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>2.5514462459245685E-2</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7293,47 +7298,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>630037</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>543737</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7344,47 +7349,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>4038243</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4865385.666666667</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7395,47 +7400,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.17122850745202006</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7446,7 +7451,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>3028682.25</v>
       </c>
@@ -7494,50 +7499,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.17000557064438263</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7654,43 +7659,43 @@
         <f>Fin_Analysis!C28</f>
         <v>22395985</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>22554271</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7705,43 +7710,43 @@
         <f>Fin_Analysis!C13</f>
         <v>308472</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7756,43 +7761,43 @@
         <f>Fin_Analysis!C18</f>
         <v>2139247</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7807,43 +7812,43 @@
         <f>Fin_Analysis!I28</f>
         <v>6712617</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7858,43 +7863,43 @@
         <f>Fin_Analysis!I48</f>
         <v>1852861</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>2478102</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7909,43 +7914,43 @@
         <f>Fin_Analysis!I15</f>
         <v>549384</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7960,43 +7965,43 @@
         <f>Fin_Analysis!I34</f>
         <v>808963</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8062,43 +8067,43 @@
         <f>Fin_Analysis!D3</f>
         <v>27043707</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8113,43 +8118,43 @@
         <f>Fin_Analysis!D4</f>
         <v>1426434</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8164,43 +8169,43 @@
         <f>Fin_Analysis!C63</f>
         <v>19533589</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8262,47 +8267,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>0.25450844870697176</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>0.35294322231741876</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8331,47 +8336,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.34537826194657922</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8382,47 +8387,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.3855127788163944</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8433,47 +8438,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>3.8846727170509146E-2</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8484,47 +8489,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>1.5785324837725313E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8535,47 +8540,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>3.7902298005128792E-4</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8586,47 +8591,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8637,47 +8642,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.22830467660269341</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8706,47 +8711,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>1.5792995802879992E-2</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>2.0232994960849439E-2</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8757,47 +8762,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0.1095241023247608</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>0.10595777294217949</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8825,47 +8830,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.24054125361195433</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.27242491285597292</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8875,47 +8880,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>2.9729097204175368</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>2.9732033660634771</v>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8925,47 +8930,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.3157207230966536E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>6.9141487036622033E-3</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8975,47 +8980,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>3.3364014362803656</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10313,8 +10318,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10363,7 +10368,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>25617273</v>
       </c>
@@ -10407,11 +10412,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9548677.4984328952</v>
+        <v>9551771.9170723297</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64691684100730362</v>
+        <v>0.64680241813475026</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10432,7 +10437,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1293408575824442</v>
+        <v>1.128669931528737</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10460,7 +10465,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10507,7 +10512,7 @@
         <f>Inputs!C48</f>
         <v>19073030</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10535,7 +10540,7 @@
         <f>Inputs!C49</f>
         <v>20972</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10563,7 +10568,7 @@
         <f>Inputs!C50</f>
         <v>308472</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10591,7 +10596,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10604,7 +10609,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>9668</v>
       </c>
@@ -10619,7 +10624,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10646,7 +10651,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10668,7 +10673,7 @@
         <f>Inputs!C54</f>
         <v>854264</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10690,7 +10695,7 @@
         <f>Inputs!C55</f>
         <v>2139247</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10711,7 +10716,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10736,7 +10741,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10763,7 +10768,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10784,7 +10789,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10949,7 +10954,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>6712617</v>
       </c>
@@ -10978,7 +10983,7 @@
         <f>Inputs!C60</f>
         <v>300000</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11004,7 +11009,7 @@
         <f>Inputs!C61</f>
         <v>1800</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11031,7 +11036,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11058,7 +11063,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11074,7 +11079,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11088,7 +11093,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11115,7 +11120,7 @@
         <f>Inputs!C65</f>
         <v>113569</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11141,7 +11146,7 @@
         <f>Inputs!C66</f>
         <v>45190</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11168,7 +11173,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11195,7 +11200,7 @@
         <f>Inputs!C68</f>
         <v>9938000</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11216,7 +11221,7 @@
         <f>Inputs!C69</f>
         <v>2304520</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11237,7 +11242,7 @@
         <f>Inputs!C70</f>
         <v>15244</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11258,7 +11263,7 @@
         <f>Inputs!C71</f>
         <v>382475</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11279,7 +11284,7 @@
         <f>Inputs!C72</f>
         <v>112402</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11425,7 +11430,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>1852861</v>
       </c>
@@ -11498,11 +11503,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7726990908432965</v>
+        <v>1.7649396923526441</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2528638.2549479669</v>
+        <v>2517569.9851213517</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11534,11 +11539,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11549,11 +11554,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11565,11 +11570,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11665,8 +11670,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>1358347</v>
@@ -11746,8 +11751,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>7207131</v>
@@ -11783,19 +11788,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11805,18 +11810,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11827,17 +11832,17 @@
         <f>Data!C6</f>
         <v>19532203</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>19532203</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>19532203</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11848,23 +11853,23 @@
         <f>Data!C8</f>
         <v>6868850</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>6868850</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>6868850</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.35166796085418528</v>
       </c>
@@ -11874,21 +11879,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>12663353</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>12663353</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>12663353</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11899,23 +11904,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>8571978</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>8571978</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>8571978</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.43886385985236792</v>
       </c>
@@ -11929,54 +11934,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>4091375</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>4091375</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>4091375</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.20946817929344683</v>
       </c>
@@ -11990,27 +11995,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12022,23 +12027,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>53132</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>53131.999999999993</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>53131.999999999993</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>2.7202256703967287E-3</v>
       </c>
@@ -12052,23 +12057,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12078,27 +12083,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>4038243</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>4038243</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>4038243</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.2067479536230501</v>
       </c>
@@ -12108,49 +12113,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.15506096521728757</v>
       </c>
@@ -12160,69 +12165,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3176049945424098E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>6.3453797762369882E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3176049945424098E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>6.3453797762369882E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3176049945424098E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>6.3453797762369882E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.93286630876064991</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.93286630876064991</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.93286630876064991</v>
       </c>
@@ -12232,21 +12237,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8934808514666231E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>5.919391009542678E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8934808514666231E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>5.919391009542678E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8934808514666231E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>5.919391009542678E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12268,22 +12273,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12293,9 +12298,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12303,15 +12308,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>7.0520009185860211</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>6.7607886604152796</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>7.0520009185860211</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>6.7607886604152796</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12319,24 +12324,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>6.4483999609430969</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>6.1816015992082205</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>6.4483999609430969</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>6.1816015992082205</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12357,14 +12365,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12379,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31790607.726485025</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>30477815.120311316</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5060907940231392</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>3.3613068342269674</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5060907940231392</v>
+        <v>3.3613068342269674</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0515404409269449</v>
+        <v>4.775550406891786</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,16 +12411,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2711715.9191306075</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>2697368.215854784</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.29906701695888066</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>0.297484651789786</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12421,19 +12429,19 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12260393.417563504</v>
-      </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+        <v>12249140.132927114</v>
+      </c>
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1493377205279993</v>
-      </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+        <v>1.1482827931637671</v>
+      </c>
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3521620241505874</v>
-      </c>
-      <c r="I99" s="217"/>
+        <v>1.3509209331338436</v>
+      </c>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12442,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>41339285.224917918</v>
+        <v>40029587.037383646</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.789107601993019</v>
+        <v>3.6664104387480889</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.3563614975922578</v>
+        <v>4.2121049756009485</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.4577736494035518</v>
+        <v>4.3134240455859869</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.5591858012148458</v>
+        <v>4.4147431155710253</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.1046354481186516</v>
+        <v>5.828986688235843</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12481,14 +12489,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12503,27 +12511,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29069558.553450543</v>
+        <v>27866824.441827234</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7250952744074124</v>
+        <v>2.6123462267076762</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.205994440479309</v>
+        <v>3.073348502009031</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.205994440479309</v>
+        <v>3.073348502009031</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.205994440479309</v>
+        <v>3.073348502009031</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.6191646254786916</v>
+        <v>4.3664358575776632</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12542,14 +12550,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12564,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34284892.382866971</v>
+        <v>33029520.229635905</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.2571014382002157</v>
+        <v>3.1393783327278824</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.7811779690357836</v>
+        <v>3.6427267388049898</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.8318840449414306</v>
+        <v>3.6933862737975089</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.8825901208470777</v>
+        <v>3.7440458087900281</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.3619000367986711</v>
+        <v>5.0977112729067535</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51F98A9-78DF-4168-93C0-1E433CA57726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07997F79-FC87-4051-9C43-453FAC4AE52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.919391009542678E-2</v>
+        <v>5.9597205999143497E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4656,7 +4656,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4968,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.64</v>
+        <v>5.59</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5009,7 +5011,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>51139.299610559996</v>
+        <v>50685.937025359999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5058,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5104,10 +5106,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5154,7 +5156,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5225,7 +5227,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7649396923526441</v>
+        <v>1.7529962977538587</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5241,7 +5243,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.759498016886734</v>
+        <v>15.652853067877992</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5273,7 +5275,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.919391009542678E-2</v>
+        <v>5.9597205999143497E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5303,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6664104387480889</v>
+        <v>3.6661724549387404</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7033346914712189</v>
+        <v>6.2178403034734329</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3134240455859869</v>
+        <v>4.3131440646338124</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.828986688235843</v>
+        <v>5.4068176551942901</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10412,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9551771.9170723297</v>
+        <v>9549808.2432946675</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64680241813475026</v>
+        <v>0.6468750292519192</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10437,7 +10439,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.128669931528737</v>
+        <v>1.1260540532863921</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11503,11 +11505,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7649396923526441</v>
+        <v>1.7529962977538589</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2517569.9851213517</v>
+        <v>2500533.5209902278</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12188,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3453797762369882E-2</v>
+        <v>6.3886116841673446E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3453797762369882E-2</v>
+        <v>6.3886116841673446E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3453797762369882E-2</v>
+        <v>6.3886116841673446E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12239,17 +12241,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.919391009542678E-2</v>
+        <v>5.9597205999143497E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.919391009542678E-2</v>
+        <v>5.9597205999143497E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.919391009542678E-2</v>
+        <v>5.9597205999143497E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12298,7 +12300,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12309,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.7607886604152796</v>
+        <v>6.760230606381028</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.7607886604152796</v>
+        <v>6.760230606381028</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12330,21 +12332,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1816015992082205</v>
+        <v>6.1802954004412465</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1816015992082205</v>
+        <v>6.1802954004412465</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12387,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30477815.120311316</v>
+        <v>30475299.397880491</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3613068342269674</v>
+        <v>3.361029382744098</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3613068342269674</v>
+        <v>3.361029382744098</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.775550406891786</v>
+        <v>4.3535979415426009</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12411,14 +12413,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2697368.215854784</v>
+        <v>2673455.3770617456</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.297484651789786</v>
+        <v>0.29484737650796172</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12429,17 +12431,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12249140.132927114</v>
+        <v>12223263.620356413</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1482827931637671</v>
+        <v>1.1458570266357029</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3509209331338436</v>
+        <v>1.3480670901596505</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12450,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40029587.037383646</v>
+        <v>40025107.641175158</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6664104387480889</v>
+        <v>3.6661724549387404</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2121049756009485</v>
+        <v>4.2120390328718393</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3134240455859869</v>
+        <v>4.3131440646338124</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4147431155710253</v>
+        <v>4.4142490963957863</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.828986688235843</v>
+        <v>5.4068176551942901</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12511,27 +12513,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27866824.441827234</v>
+        <v>27860936.063040406</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6123462267076762</v>
+        <v>2.6117942268148537</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.073348502009031</v>
+        <v>3.0726990903704161</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.073348502009031</v>
+        <v>3.0726990903704161</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.073348502009031</v>
+        <v>3.0726990903704161</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3664358575776632</v>
+        <v>3.9801188598638877</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12572,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33029520.229635905</v>
+        <v>33026277.08058105</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1393783327278824</v>
+        <v>3.1389833408767971</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6427267388049898</v>
+        <v>3.6423690616211277</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6933862737975089</v>
+        <v>3.6929215775021142</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7440458087900281</v>
+        <v>3.7434740933831012</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0977112729067535</v>
+        <v>4.6934682575290889</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07997F79-FC87-4051-9C43-453FAC4AE52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C084859D-E86C-4044-9E6A-808E48E09CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.9597205999143497E-2</v>
+        <v>6.1549719165905223E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.59</v>
+        <v>5.42</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>50685.937025359999</v>
+        <v>49144.504235679997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.7529962977538587</v>
+        <v>1.6973868100253597</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.652853067877992</v>
+        <v>15.156304876812513</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9597205999143497E-2</v>
+        <v>6.1549719165905223E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.6661724549387404</v>
+        <v>3.7073488903757505</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.2178403034734329</v>
+        <v>6.2865402767609719</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3131440646338124</v>
+        <v>4.3615869298538241</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.4068176551942901</v>
+        <v>5.4665567624008453</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10414,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9549808.2432946675</v>
+        <v>9647662.6870796196</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.6468750292519192</v>
+        <v>0.64325664794846282</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10439,7 +10439,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1260540532863921</v>
+        <v>1.1391327873523676</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11505,11 +11505,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.7529962977538589</v>
+        <v>1.6973868100253597</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2500533.5209902278</v>
+        <v>2421210.2569717141</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3886116841673446E-2</v>
+        <v>6.5979142550100747E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3886116841673446E-2</v>
+        <v>6.5979142550100747E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3886116841673446E-2</v>
+        <v>6.5979142550100747E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12241,17 +12241,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9597205999143497E-2</v>
+        <v>6.1549719165905223E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9597205999143497E-2</v>
+        <v>6.1549719165905223E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9597205999143497E-2</v>
+        <v>6.1549719165905223E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.760230606381028</v>
+        <v>6.8362351529812999</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.760230606381028</v>
+        <v>6.8362351529812999</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12339,14 +12339,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1802954004412465</v>
+        <v>6.2458933553315639</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.1802954004412465</v>
+        <v>6.2458933553315639</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12389,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30475299.397880491</v>
+        <v>30817929.915699974</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.361029382744098</v>
+        <v>3.3988170750906481</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.361029382744098</v>
+        <v>3.3988170750906481</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.3535979415426009</v>
+        <v>4.4025449755852692</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12413,14 +12413,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2673455.3770617456</v>
+        <v>2592151.7251654132</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.29484737650796172</v>
+        <v>0.28588064054975898</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12431,17 +12431,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12223263.620356413</v>
+        <v>12239814.412245031</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1458570266357029</v>
+        <v>1.1474085632605349</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3480670901596505</v>
+        <v>1.3498924273653352</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12452,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40025107.641175158</v>
+        <v>40465592.602779597</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.6661724549387404</v>
+        <v>3.7073488903757505</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2120390328718393</v>
+        <v>4.2603449978014236</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3131440646338124</v>
+        <v>4.3615869298538241</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4142490963957863</v>
+        <v>4.4628288619062246</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.4068176551942901</v>
+        <v>5.4665567624008453</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12513,27 +12513,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>27860936.063040406</v>
+        <v>28156653.388612717</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6117942268148537</v>
+        <v>2.6395159373112742</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.0726990903704161</v>
+        <v>3.1053128674250288</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.0726990903704161</v>
+        <v>3.1053128674250288</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.0726990903704161</v>
+        <v>3.1053128674250288</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.9801188598638877</v>
+        <v>4.0223640343273628</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12574,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33026277.08058105</v>
+        <v>33393136.914777778</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1389833408767971</v>
+        <v>3.1734324138435124</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6423690616211277</v>
+        <v>3.6828289326132264</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.6929215775021142</v>
+        <v>3.7334498986394262</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7434740933831012</v>
+        <v>3.7840708646656269</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.6934682575290889</v>
+        <v>4.7444603983641045</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C084859D-E86C-4044-9E6A-808E48E09CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A719E23-3B06-4E1B-B14C-F5F51F10DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>6186.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -4186,7 +4194,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1549719165905223E-2</v>
+        <v>5.5626276048024496E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4313,7 +4321,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59">
         <v>854264</v>
@@ -4433,7 +4441,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4970,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.42</v>
+        <v>6</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5011,7 +5019,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>49144.504235679997</v>
+        <v>54403.510223999998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5060,7 +5068,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5106,10 +5114,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5156,7 +5164,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5227,7 +5235,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6973868100253597</v>
+        <v>1.8781354585515686</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5251,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.156304876812513</v>
+        <v>16.770245557248291</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5275,7 +5283,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1549719165905223E-2</v>
+        <v>5.5626276048024496E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5305,20 +5313,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7073488903757505</v>
+        <v>4.1313912501035386</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.2865402767609719</v>
+        <v>7.3579653153323665</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.3615869298538241</v>
+        <v>4.8604602942394575</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.4665567624008453</v>
+        <v>6.3982307089846673</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10414,11 +10422,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9647662.6870796196</v>
+        <v>9376077.3464078028</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.64325664794846282</v>
+        <v>0.6532991077588659</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10439,7 +10447,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1391327873523676</v>
+        <v>1.1075906926601948</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11505,11 +11513,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6973868100253597</v>
+        <v>1.8781354585515686</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2421210.2569717141</v>
+        <v>2679036.2746835481</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12190,17 +12198,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5979142550100747E-2</v>
+        <v>5.962941905569108E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5979142550100747E-2</v>
+        <v>5.962941905569108E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5979142550100747E-2</v>
+        <v>5.962941905569108E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12241,17 +12249,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1549719165905223E-2</v>
+        <v>5.5626276048024496E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1549719165905223E-2</v>
+        <v>5.5626276048024496E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1549719165905223E-2</v>
+        <v>5.5626276048024496E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12300,7 +12308,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12311,14 +12319,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8362351529812999</v>
+        <v>7.8999890742279213</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.8362351529812999</v>
+        <v>7.8999890742279213</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12339,14 +12347,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.2458933553315639</v>
+        <v>7.231473879930328</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.2458933553315639</v>
+        <v>7.231473879930328</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12389,21 +12397,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30817929.915699974</v>
+        <v>35613360.888877191</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.3988170750906481</v>
+        <v>3.9276907768167972</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.3988170750906481</v>
+        <v>3.9276907768167972</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.4025449755852692</v>
+        <v>5.3641712549748526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12413,14 +12421,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2592151.7251654132</v>
+        <v>2869540.6551646641</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.28588064054975898</v>
+        <v>0.31647303381892133</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12431,17 +12439,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12239814.412245031</v>
+        <v>12245618.001572467</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1474085632605349</v>
+        <v>1.1479526146544257</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3498924273653352</v>
+        <v>1.3505324878287361</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12452,27 +12460,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>40465592.602779597</v>
+        <v>44989438.235284999</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7073488903757505</v>
+        <v>4.1313912501035386</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.2603449978014236</v>
+        <v>4.7591703576523017</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.3615869298538241</v>
+        <v>4.8604602942394575</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.4628288619062246</v>
+        <v>4.9617502308266124</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>5.4665567624008453</v>
+        <v>6.3982307089846673</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12513,27 +12521,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>28156653.388612717</v>
+        <v>32599676.610263824</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.6395159373112742</v>
+        <v>3.0560224887658252</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.1053128674250288</v>
+        <v>3.5953205750186181</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.1053128674250288</v>
+        <v>3.5953205750186181</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.1053128674250288</v>
+        <v>3.5953205750186181</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.0223640343273628</v>
+        <v>4.9102427805085069</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12574,27 +12582,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>33393136.914777778</v>
+        <v>37876136.072656482</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1734324138435124</v>
+        <v>3.5937068694346816</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.6828289326132264</v>
+        <v>4.1772454663354601</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.7334498986394262</v>
+        <v>4.227890434629038</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.7840708646656269</v>
+        <v>4.278535402922615</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.7444603983641045</v>
+        <v>5.6542367447465871</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A719E23-3B06-4E1B-B14C-F5F51F10DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C3D0167-3A1C-4A26-95EF-E686166B0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -4194,7 +4198,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.5626276048024496E-2</v>
+        <v>5.4763279485780809E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4978,10 +4982,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6</v>
+        <v>6.09</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5019,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>54403.510223999998</v>
+        <v>55219.562877360004</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5068,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5089,7 +5093,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5100,7 +5104,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5127,7 +5131,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5235,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8781354585515686</v>
+        <v>1.9077323793236127</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5251,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.770245557248291</v>
+        <v>17.03452235731914</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5283,7 +5287,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5626276048024496E-2</v>
+        <v>5.4763279485780809E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5313,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1313912501035386</v>
+        <v>4.1095324140796281</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.3579653153323665</v>
+        <v>7.3198775764230959</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8604602942394575</v>
+        <v>4.8347440165642688</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.3982307089846673</v>
+        <v>6.3651109360200842</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5361,8 +5365,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6388,12 +6392,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8819,118 +8823,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>0.18998161609687811</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.24054125361195433</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.27242491285597292</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>2.9729097204175368</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>2.9732033660634771</v>
-      </c>
-      <c r="E54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8938,107 +8943,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.3157207230966536E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>2.9729097204175368</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>6.9141487036622033E-3</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v>2.9732033660634771</v>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.3157207230966536E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>6.9141487036622033E-3</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>3.3364014362803656</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9606,7 +9658,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10289,6 +10343,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10422,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9376077.3464078028</v>
+        <v>9323887.9615173768</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.6532991077588659</v>
+        <v>0.65522892399635246</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10447,7 +10502,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1075906926601948</v>
+        <v>1.1006029334191245</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11513,11 +11568,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8781354585515686</v>
+        <v>1.9077323793236127</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2679036.2746835481</v>
+        <v>2721254.3287680983</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12198,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.962941905569108E-2</v>
+        <v>5.8704316976069176E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.962941905569108E-2</v>
+        <v>5.8704316976069176E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.962941905569108E-2</v>
+        <v>5.8704316976069176E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12249,17 +12304,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5626276048024496E-2</v>
+        <v>5.4763279485780809E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5626276048024496E-2</v>
+        <v>5.4763279485780809E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5626276048024496E-2</v>
+        <v>5.4763279485780809E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12319,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8999890742279213</v>
+        <v>7.8596892791252957</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8999890742279213</v>
+        <v>7.8596892791252957</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12347,14 +12402,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.231473879930328</v>
+        <v>7.1965836059733936</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.231473879930328</v>
+        <v>7.1965836059733936</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12397,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>35613360.888877191</v>
+        <v>35431688.340567</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9276907768167972</v>
+        <v>3.907654656254484</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9276907768167972</v>
+        <v>3.907654656254484</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3641712549748526</v>
+        <v>5.3368072927668404</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,14 +12476,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2869540.6551646641</v>
+        <v>2912583.7649921342</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.31647303381892133</v>
+        <v>0.32122012932620514</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12439,17 +12494,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12245618.001572467</v>
+        <v>12236471.726509511</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1479526146544257</v>
+        <v>1.1470952066925311</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3505324878287361</v>
+        <v>1.3495237725794484</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12460,27 +12515,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>44989438.235284999</v>
+        <v>44755576.302084379</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1313912501035386</v>
+        <v>4.1095324140796281</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.7591703576523017</v>
+        <v>4.7335297336208102</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8604602942394575</v>
+        <v>4.8347440165642688</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.9617502308266124</v>
+        <v>4.9359582995077274</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.3982307089846673</v>
+        <v>6.3651109360200842</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12521,27 +12576,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>32599676.610263824</v>
+        <v>32442390.327173419</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.0560224887658252</v>
+        <v>3.0412778511411895</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.5953205750186181</v>
+        <v>3.5779739425190464</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.5953205750186181</v>
+        <v>3.5779739425190464</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.5953205750186181</v>
+        <v>3.5779739425190464</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.9102427805085069</v>
+        <v>4.8865519370301849</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12582,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37876136.072656482</v>
+        <v>37681247.935140692</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.5937068694346816</v>
+        <v>3.5754051326104088</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.1772454663354601</v>
+        <v>4.1557518380699285</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.227890434629038</v>
+        <v>4.2063589795416574</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.278535402922615</v>
+        <v>4.2569661210133871</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.6542367447465871</v>
+        <v>5.6258314365251341</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C3D0167-3A1C-4A26-95EF-E686166B0D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3501A59C-3EF4-45F1-A20D-9E4174FCB741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.4763279485780809E-2</v>
+        <v>5.4832851340373349E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>55219.562877360004</v>
+        <v>55128.890360320001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.9077323793236127</v>
+        <v>1.9053118508183211</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.03452235731914</v>
+        <v>17.01290897622502</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.4763279485780809E-2</v>
+        <v>5.4832851340373349E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5317,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1095324140796281</v>
+        <v>4.1095125505805932</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.3198775764230959</v>
+        <v>7.31977174091279</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8347440165642688</v>
+        <v>4.8347206477418743</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.3651109360200842</v>
+        <v>6.3650189051415573</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10383,8 +10383,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10477,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9323887.9615173768</v>
+        <v>9324097.618890861</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.65522892399635246</v>
+        <v>0.65522117145808223</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10502,7 +10502,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1006029334191245</v>
+        <v>1.100216364389131</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11568,11 +11568,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.9077323793236127</v>
+        <v>1.9053118508183211</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2721254.3287680983</v>
+        <v>2717801.6046101809</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12253,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8704316976069176E-2</v>
+        <v>5.8778895566740944E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8704316976069176E-2</v>
+        <v>5.8778895566740944E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8704316976069176E-2</v>
+        <v>5.8778895566740944E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12304,17 +12304,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.4763279485780809E-2</v>
+        <v>5.4832851340373349E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.4763279485780809E-2</v>
+        <v>5.4832851340373349E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.4763279485780809E-2</v>
+        <v>5.4832851340373349E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12374,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8596892791252957</v>
+        <v>7.8595196890330392</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8596892791252957</v>
+        <v>7.8595196890330392</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12402,14 +12402,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1965836059733936</v>
+        <v>7.1962670078115236</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1965836059733936</v>
+        <v>7.1962670078115236</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12452,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>35431688.340567</v>
+        <v>35430923.823919959</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.907654656254484</v>
+        <v>3.9075703400060768</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.907654656254484</v>
+        <v>3.9075703400060768</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3368072927668404</v>
+        <v>5.3366921394053026</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12475,15 +12475,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>2912583.7649921342</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-2907801.197233526</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.32122012932620514</v>
+        <v>-0.32069267426984027</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12494,17 +12494,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12236471.726509511</v>
+        <v>12231898.816124387</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1470952066925311</v>
+        <v>1.1466665240051803</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3495237725794484</v>
+        <v>1.3490194400060946</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12514,28 +12514,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>44755576.302084379</v>
+        <f>C97+C98+$C$99</f>
+        <v>44755021.442810819</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1095324140796281</v>
+        <v>4.1095125505805932</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>4.7335297336208102</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>4.7335441897414174</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8347440165642688</v>
+        <v>4.8347206477418743</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.9359582995077274</v>
+        <v>4.9358971057423311</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>6.3651109360200842</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>6.3650189051415573</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12576,27 +12576,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>32442390.327173419</v>
+        <v>32440963.094238099</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.0412778511411895</v>
+        <v>3.0411440566867474</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.5779739425190464</v>
+        <v>3.5778165372785264</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.5779739425190464</v>
+        <v>3.5778165372785264</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.5779739425190464</v>
+        <v>3.5778165372785264</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.8865519370301849</v>
+        <v>4.8863369637253706</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12637,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37681247.935140692</v>
+        <v>37680599.857315131</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.5754051326104088</v>
+        <v>3.57532830363367</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.1557518380699285</v>
+        <v>4.1556803635099717</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.2063589795416574</v>
+        <v>4.2062685925102006</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.2569661210133871</v>
+        <v>4.2568568215104285</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.6258314365251341</v>
+        <v>5.6256779344334635</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3501A59C-3EF4-45F1-A20D-9E4174FCB741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC7607A-FC98-4CA5-907A-74AC54D30D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.4832851340373349E-2</v>
+        <v>5.6428634355247059E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.08</v>
+        <v>5.91</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>55128.890360320001</v>
+        <v>53587.457570639999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.9053118508183211</v>
+        <v>1.851430265266699</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>17.01290897622502</v>
+        <v>16.531789567824386</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.4832851340373349E-2</v>
+        <v>5.6428634355247059E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5317,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1095125505805932</v>
+        <v>4.1455006633245421</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.31977174091279</v>
+        <v>7.3823634494777099</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8347206477418743</v>
+        <v>4.8770596039112259</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.3650189051415573</v>
+        <v>6.4194464778067051</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10477,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9324097.618890861</v>
+        <v>9409418.5811920874</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.65522117145808223</v>
+        <v>0.65206624294546278</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10502,7 +10502,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.100216364389131</v>
+        <v>1.1106486389300252</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11568,11 +11568,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.9053118508183211</v>
+        <v>1.851430265266699</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2717801.6046101809</v>
+        <v>2640943.0790054384</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12253,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8778895566740944E-2</v>
+        <v>6.0489519050392911E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8778895566740944E-2</v>
+        <v>6.0489519050392911E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8778895566740944E-2</v>
+        <v>6.0489519050392911E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12304,17 +12304,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.4832851340373349E-2</v>
+        <v>5.6428634355247059E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.4832851340373349E-2</v>
+        <v>5.6428634355247059E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.4832851340373349E-2</v>
+        <v>5.6428634355247059E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12374,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8595196890330392</v>
+        <v>7.9258188338583802</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.8595196890330392</v>
+        <v>7.9258188338583802</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12402,14 +12402,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1962670078115236</v>
+        <v>7.2532470005226113</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1962670078115236</v>
+        <v>7.2532470005226113</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12452,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>35430923.823919959</v>
+        <v>35729802.132371232</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9075703400060768</v>
+        <v>3.9405327323834083</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9075703400060768</v>
+        <v>3.9405327323834083</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3366921394053026</v>
+        <v>5.3817099189946074</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12476,14 +12476,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2907801.197233526</v>
+        <v>-2826497.5453371941</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.32069267426984027</v>
+        <v>-0.31172593831163747</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12494,17 +12494,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12231898.816124387</v>
+        <v>12235916.126529282</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1466665240051803</v>
+        <v>1.1470431225551747</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3490194400060946</v>
+        <v>1.349462497123735</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12515,27 +12515,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>44755021.442810819</v>
+        <v>45139220.713563323</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1095125505805932</v>
+        <v>4.1455006633245421</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.7335441897414174</v>
+        <v>4.7758499166269459</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8347206477418743</v>
+        <v>4.8770596039112259</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.9358971057423311</v>
+        <v>4.978269291195506</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.3650189051415573</v>
+        <v>6.4194464778067051</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12576,27 +12576,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>32440963.094238099</v>
+        <v>32697830.41706587</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.0411440566867474</v>
+        <v>3.0652238144271537</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.5778165372785264</v>
+        <v>3.6061456640319456</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.5778165372785264</v>
+        <v>3.6061456640319456</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.5778165372785264</v>
+        <v>3.6061456640319456</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.8863369637253706</v>
+        <v>4.9250269462225136</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12637,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37680599.857315131</v>
+        <v>38000831.855824903</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.57532830363367</v>
+        <v>3.6053622388758479</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.1556803635099717</v>
+        <v>4.1909977903294457</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.2062685925102006</v>
+        <v>4.2416026339715858</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.2568568215104285</v>
+        <v>4.2922074776137258</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.6256779344334635</v>
+        <v>5.6722367120146089</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC7607A-FC98-4CA5-907A-74AC54D30D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCC270A-E785-4C1B-A9AA-E43C4518EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6428634355247059E-2</v>
+        <v>5.6233065135027328E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>53587.457570639999</v>
+        <v>53768.802604720004</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5118,10 +5118,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5168,7 +5168,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.851430265266699</v>
+        <v>1.8578692308895042</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.531789567824386</v>
+        <v>16.589284374249264</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6428634355247059E-2</v>
+        <v>5.6233065135027328E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5317,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1455006633245421</v>
+        <v>3.8504900519954073</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>7.3823634494777099</v>
+        <v>6.6898858627320941</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8770596039112259</v>
+        <v>4.5299882964651852</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.4194464778067051</v>
+        <v>5.8172920545496476</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10477,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9409418.5811920874</v>
+        <v>9398710.4452249426</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.65206624294546278</v>
+        <v>0.6524621996080292</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10502,7 +10502,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1106486389300252</v>
+        <v>1.1092810635211803</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11568,11 +11568,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.851430265266699</v>
+        <v>1.8578692308895042</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2640943.0790054384</v>
+        <v>2650127.8384946389</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12253,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0489519050392911E-2</v>
+        <v>6.027987569808925E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0489519050392911E-2</v>
+        <v>6.027987569808925E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0489519050392911E-2</v>
+        <v>6.027987569808925E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12304,17 +12304,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6428634355247059E-2</v>
+        <v>5.6233065135027328E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6428634355247059E-2</v>
+        <v>5.6233065135027328E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6428634355247059E-2</v>
+        <v>5.6233065135027328E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12374,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9258188338583802</v>
+        <v>7.2300907978499422</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.9258188338583802</v>
+        <v>7.2300907978499422</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12402,14 +12402,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2532470005226113</v>
+        <v>6.6169729852598564</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2532470005226113</v>
+        <v>6.6169729852598564</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12452,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>35729802.132371232</v>
+        <v>32593441.639455017</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.9405327323834083</v>
+        <v>3.5946329387852423</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.9405327323834083</v>
+        <v>3.5946329387852423</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.3817099189946074</v>
+        <v>4.7807364639423282</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12476,14 +12476,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2826497.5453371941</v>
+        <v>-2836062.6808544095</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.31172593831163747</v>
+        <v>-0.31278084842436726</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12494,17 +12494,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12235916.126529282</v>
+        <v>12234773.126079353</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1470431225551747</v>
+        <v>1.1469359731769335</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.349462497123735</v>
+        <v>1.3493364390316867</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12515,27 +12515,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>45139220.713563323</v>
+        <v>41992152.084679961</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1455006633245421</v>
+        <v>3.8504900519954073</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.7758499166269459</v>
+        <v>4.4287880635378087</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.8770596039112259</v>
+        <v>4.5299882964651852</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.978269291195506</v>
+        <v>4.6311885293925616</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.4194464778067051</v>
+        <v>5.8172920545496476</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12576,27 +12576,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>32697830.41706587</v>
+        <v>29829490.231167316</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.0652238144271537</v>
+        <v>2.7963342724132034</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.6061456640319456</v>
+        <v>3.2898050263684748</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.6061456640319456</v>
+        <v>3.2898050263684748</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.6061456640319456</v>
+        <v>3.2898050263684748</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.9250269462225136</v>
+        <v>4.3753259697596496</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12637,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38000831.855824903</v>
+        <v>34993213.173467688</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.6053622388758479</v>
+        <v>3.3234121622043054</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>4.1909977903294457</v>
+        <v>3.8592965449531418</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>4.2416026339715858</v>
+        <v>3.90989666141683</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>4.2922074776137258</v>
+        <v>3.9604967778805182</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.6722367120146089</v>
+        <v>5.0963090121546486</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFCC270A-E785-4C1B-A9AA-E43C4518EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE8F879-C6BF-4E52-B747-4AF9C7A4AD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4198,7 +4209,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6233065135027328E-2</v>
+        <v>5.6853334561956612E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4982,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5023,7 +5034,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>53768.802604720004</v>
+        <v>53134.094985440002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,7 +5083,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,7 +5250,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8578692308895042</v>
+        <v>1.8375998923883901</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5266,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.589284374249264</v>
+        <v>16.408295413948807</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5287,7 +5298,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6233065135027328E-2</v>
+        <v>5.6853334561956612E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5317,20 +5328,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8504900519954073</v>
+        <v>3.8594899198126491</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.6898858627320941</v>
+        <v>6.7050019045939528</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5299882964651852</v>
+        <v>4.5405763762501756</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8172920545496476</v>
+        <v>5.8304364387773511</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10477,11 +10488,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9398710.4452249426</v>
+        <v>9421125.0292501859</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.6524621996080292</v>
+        <v>0.65163337151781053</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10502,7 +10513,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1092810635211803</v>
+        <v>1.1109210722973635</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -11568,11 +11579,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8578692308895042</v>
+        <v>1.8375998923883901</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2650127.8384946389</v>
+        <v>2621214.9648991409</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12253,17 +12264,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.027987569808925E-2</v>
+        <v>6.0944782792604582E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.027987569808925E-2</v>
+        <v>6.0944782792604582E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.027987569808925E-2</v>
+        <v>6.0944782792604582E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12304,17 +12315,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6233065135027328E-2</v>
+        <v>5.6853334561956612E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6233065135027328E-2</v>
+        <v>5.6853334561956612E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6233065135027328E-2</v>
+        <v>5.6853334561956612E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12374,14 +12385,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2300907978499422</v>
+        <v>7.246230996794357</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2300907978499422</v>
+        <v>7.246230996794357</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12402,14 +12413,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6169729852598564</v>
+        <v>6.6304237574638343</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6169729852598564</v>
+        <v>6.6304237574638343</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12452,21 +12463,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32593441.639455017</v>
+        <v>32666202.085630935</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.5946329387852423</v>
+        <v>3.6026574702034915</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.5946329387852423</v>
+        <v>3.6026574702034915</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7807364639423282</v>
+        <v>4.7914088109136541</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12476,14 +12487,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2836062.6808544095</v>
+        <v>-2802584.7065441557</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.31278084842436726</v>
+        <v>-0.30908866302981319</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12494,17 +12505,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12234773.126079353</v>
+        <v>12223709.735794343</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1469359731769335</v>
+        <v>1.145898847259484</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3493364390316867</v>
+        <v>1.3481162908935107</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12515,27 +12526,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>41992152.084679961</v>
+        <v>42087327.114881121</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8504900519954073</v>
+        <v>3.8594899198126491</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4287880635378087</v>
+        <v>4.4394676544331624</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.5299882964651852</v>
+        <v>4.5405763762501756</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6311885293925616</v>
+        <v>4.641685098067188</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8172920545496476</v>
+        <v>5.8304364387773511</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12576,27 +12587,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29829490.231167316</v>
+        <v>29890126.670057729</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.7963342724132034</v>
+        <v>2.8020185717730759</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.2898050263684748</v>
+        <v>3.2964924373800892</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2898050263684748</v>
+        <v>3.2964924373800892</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.2898050263684748</v>
+        <v>3.2964924373800892</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3753259697596496</v>
+        <v>4.3842199932154626</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12637,27 +12648,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34993213.173467688</v>
+        <v>35071948.662284851</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.3234121622043054</v>
+        <v>3.3307542457928623</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8592965449531418</v>
+        <v>3.8679800459066258</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.90989666141683</v>
+        <v>3.9185344068151324</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.9604967778805182</v>
+        <v>3.9690887677236386</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.0963090121546486</v>
+        <v>5.1073282159964073</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE8F879-C6BF-4E52-B747-4AF9C7A4AD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4C22C8-4990-4F42-904B-17974BB734DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>9067251704</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>6868850</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>8571978</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>53132</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>-99657</v>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>-337926</v>
@@ -3966,7 +3991,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>630037</v>
@@ -3986,7 +4011,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>630037</v>
@@ -4024,7 +4049,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4042,7 +4067,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4078,7 +4103,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4132,7 +4157,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4150,7 +4175,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4168,7 +4193,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4186,7 +4211,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.1484+0.1632</f>
@@ -4205,11 +4230,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6853334561956612E-2</v>
+        <v>5.6760019985266127E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4254,21 +4279,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>19073030</v>
@@ -4280,7 +4305,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>20972</v>
@@ -4292,7 +4317,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>308472</v>
@@ -4305,7 +4330,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4315,7 +4340,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4325,7 +4350,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4336,7 +4361,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59">
         <v>854264</v>
@@ -4348,7 +4373,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>2139247</v>
@@ -4361,7 +4386,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4369,24 +4394,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4397,7 +4422,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4408,7 +4433,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>300000</v>
@@ -4421,7 +4446,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>1800</v>
@@ -4434,7 +4459,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4445,7 +4470,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4456,7 +4481,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4466,7 +4491,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>113569</v>
@@ -4475,12 +4500,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>45190</v>
@@ -4489,12 +4514,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4502,12 +4527,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>9938000</v>
@@ -4520,7 +4545,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59">
         <v>2304520</v>
@@ -4533,7 +4558,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>15244</v>
@@ -4545,7 +4570,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>382475</v>
@@ -4558,7 +4583,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>112402</v>
@@ -4570,7 +4595,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>510909</v>
@@ -4578,7 +4603,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>28807</v>
@@ -4586,7 +4611,7 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59">
         <v>0</v>
@@ -4594,7 +4619,7 @@
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120">
         <v>9668</v>
@@ -4610,7 +4635,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>756896</v>
@@ -4618,7 +4643,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>52067</v>
@@ -4626,19 +4651,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>1852861</v>
@@ -4646,7 +4671,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>25617273</v>
@@ -4654,19 +4679,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4674,10 +4699,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4685,18 +4710,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4705,20 +4730,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4736,7 +4761,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4757,7 +4782,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4778,7 +4803,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4796,7 +4821,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4817,7 +4842,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4835,7 +4860,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4853,7 +4878,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4981,62 +5006,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>53134.094985440002</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>53224.767502480005</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5059,16 +5084,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5083,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5093,40 +5118,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5139,29 +5164,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5171,12 +5196,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5186,29 +5211,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.35166796085418528</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5216,7 +5241,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5227,58 +5252,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8375998923883901</v>
+        <v>1.8406209423480133</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.408295413948807</v>
+        <v>16.435270970707993</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5287,18 +5312,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.2067479536230501</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6853334561956612E-2</v>
+        <v>5.6760019985266127E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5308,62 +5333,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8594899198126491</v>
+        <v>3.8578552297991648</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7050019045939528</v>
+        <v>6.7022383911839185</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5405763762501756</v>
-      </c>
-      <c r="G29" s="274">
+        <v>4.5386532115284295</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8304364387773511</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>5.8280333836381901</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5373,25 +5398,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5401,7 +5426,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5411,14 +5436,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5428,7 +5453,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5443,14 +5468,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6403,12 +6428,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6435,16 +6460,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6462,7 +6487,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6495,7 +6520,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6506,7 +6531,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6658,7 +6683,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6709,7 +6734,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6760,7 +6785,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6811,7 +6836,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6862,7 +6887,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6913,7 +6938,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6964,7 +6989,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7015,7 +7040,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7066,7 +7091,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7117,7 +7142,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7168,7 +7193,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7219,7 +7244,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7270,7 +7295,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7321,7 +7346,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7372,7 +7397,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7423,7 +7448,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7474,7 +7499,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7525,7 +7550,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7576,7 +7601,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7729,7 +7754,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7780,7 +7805,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7882,7 +7907,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8086,7 +8111,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8137,7 +8162,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8188,7 +8213,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8239,7 +8264,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8290,7 +8315,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8341,7 +8366,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8359,7 +8384,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8410,7 +8435,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8461,7 +8486,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8512,7 +8537,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8563,7 +8588,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8614,7 +8639,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8665,7 +8690,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8716,7 +8741,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8733,50 +8758,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>1.5792995802879992E-2</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>1.215022012247633</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>1.3133751573546837</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>2.0232994960849439E-2</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8785,15 +8810,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.1095241023247608</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>1.5792995802879992E-2</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>0.10595777294217949</v>
+        <v>2.0232994960849439E-2</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8836,167 +8861,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.1095241023247608</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10595777294217949</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>0.18998161609687811</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.24054125361195433</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.27242491285597292</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>2.9729097204175368</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.71940071079975576</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.68918582450160215</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>2.9732033660634771</v>
-      </c>
-      <c r="E55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9004,112 +9030,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.3157207230966536E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>2.9729097204175368</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>6.9141487036622033E-3</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v>2.9732033660634771</v>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.3157207230966536E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>6.9141487036622033E-3</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>3.3364014362803656</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>3.055211094750502</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>0.15971157429598382</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>0.22958180147126375</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>0.15763750497564671</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>0.19504562710363152</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9672,7 +9888,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10355,6 +10573,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10394,8 +10613,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10413,7 +10632,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10428,7 +10647,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10442,7 +10661,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10452,7 +10671,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10470,10 +10689,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10482,22 +10701,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>9421125.0292501859</v>
+        <f>(E49-I49-E53)</f>
+        <v>8807126.0067227557</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.65163337151781053</v>
+        <v>0.67433732340308383</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10507,20 +10727,21 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.1109210722973635</v>
+        <v>1.038584244937085</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10538,7 +10759,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10557,32 +10778,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10599,7 +10820,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10610,7 +10831,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10627,7 +10848,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10638,7 +10859,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10655,7 +10876,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10666,7 +10887,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10683,7 +10904,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10694,7 +10915,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10711,7 +10932,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10721,7 +10942,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10743,7 +10964,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10765,7 +10986,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10786,7 +11007,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10811,7 +11032,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10838,7 +11059,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10859,7 +11080,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10876,7 +11097,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10888,13 +11109,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10916,7 +11137,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10936,7 +11157,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10945,7 +11166,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10965,7 +11186,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10978,7 +11199,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10998,7 +11219,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11044,7 +11265,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11053,7 +11274,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11069,7 +11290,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11079,7 +11300,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11096,7 +11317,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11106,7 +11327,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11123,7 +11344,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11133,7 +11354,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11153,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11163,7 +11384,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11180,7 +11401,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11190,7 +11411,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11216,7 +11437,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11243,7 +11464,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11270,7 +11491,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11291,7 +11512,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11312,7 +11533,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11333,7 +11554,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11354,7 +11575,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11371,7 +11592,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11389,7 +11610,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11408,7 +11629,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11427,7 +11648,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11444,7 +11665,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11457,7 +11678,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11474,7 +11695,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11487,7 +11708,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11504,7 +11725,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11531,7 +11752,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11547,14 +11768,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11571,7 +11792,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11579,11 +11800,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8375998923883901</v>
+        <v>1.8406209423480133</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2621214.9648991409</v>
+        <v>2625524.2932772459</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11601,7 +11822,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11612,14 +11833,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11627,30 +11848,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11667,11 +11888,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11681,7 +11902,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11702,7 +11923,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11723,7 +11944,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11744,7 +11965,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11759,7 +11980,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11790,11 +12011,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11804,7 +12025,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11825,7 +12046,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11840,7 +12061,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11862,21 +12083,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11886,23 +12107,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11923,7 +12144,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11953,7 +12174,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11974,7 +12195,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12004,7 +12225,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12034,7 +12255,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12065,7 +12286,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12092,12 +12313,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12127,7 +12348,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12157,7 +12378,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12187,7 +12408,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12208,7 +12429,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12239,7 +12460,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12260,28 +12481,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0944782792604582E-2</v>
+        <v>6.0844752835670611E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0944782792604582E-2</v>
+        <v>6.0844752835670611E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0944782792604582E-2</v>
+        <v>6.0844752835670611E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12311,21 +12532,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6853334561956612E-2</v>
+        <v>5.6760019985266127E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6853334561956612E-2</v>
+        <v>5.6760019985266127E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6853334561956612E-2</v>
+        <v>5.6760019985266127E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12342,29 +12563,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12381,24 +12602,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.246230996794357</v>
+        <v>7.2432673094759661</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.246230996794357</v>
+        <v>7.2432673094759661</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12409,18 +12630,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6304237574638343</v>
+        <v>6.6279104254520433</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6304237574638343</v>
+        <v>6.6279104254520433</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12439,114 +12660,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32666202.085630935</v>
+        <v>32652841.704364594</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6026574702034915</v>
+        <v>3.601183993818089</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6026574702034915</v>
+        <v>3.601183993818089</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7914088109136541</v>
+        <v>4.7894491387011051</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2802584.7065441557</v>
+        <v>-2807367.2743027629</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.30908866302981319</v>
+        <v>-0.309616118086178</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12223709.735794343</v>
+        <v>12224472.0389561</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.145898847259484</v>
+        <v>1.1459703085697737</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3481162908935107</v>
+        <v>1.3482003630232631</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>42087327.114881121</v>
+        <v>42069946.46901793</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8594899198126491</v>
+        <v>3.8578552297991648</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4394676544331624</v>
+        <v>4.437538184301685</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.5405763762501756</v>
+        <v>4.5386532115284295</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.641685098067188</v>
+        <v>4.639768238755174</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8304364387773511</v>
+        <v>5.8280333836381901</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12556,58 +12777,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29890126.670057729</v>
+        <v>29878796.502493128</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8020185717730759</v>
+        <v>2.8009564370993845</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.2964924373800892</v>
+        <v>3.2952428671757463</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2964924373800892</v>
+        <v>3.2952428671757463</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.2964924373800892</v>
+        <v>3.2952428671757463</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3842199932154626</v>
+        <v>4.3825581084161271</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12617,58 +12838,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35071948.662284851</v>
+        <v>35057536.082833827</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.3307542457928623</v>
+        <v>3.3294058334492744</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8679800459066258</v>
+        <v>3.8663905257387157</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.9185344068151324</v>
+        <v>3.9169480393520879</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.9690887677236386</v>
+        <v>3.9675055529654601</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.1073282159964073</v>
+        <v>5.1052957460271582</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12677,7 +12898,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12686,6 +12907,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4C22C8-4990-4F42-904B-17974BB734DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7341A82B-36EE-4380-A8FB-079B6C3A7455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.35166796085418528</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43886385985236792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7202256703967287E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2067479536230501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -3678,7 +2841,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3687,15 +2850,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>9067251704</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>53132</v>
@@ -4067,7 +3230,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4175,7 +3338,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4211,7 +3374,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.1484+0.1632</f>
@@ -4230,11 +3393,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6760019985266127E-2</v>
+        <v>5.6851561799119897E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4279,13 +3442,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4350,7 +3513,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4361,7 +3524,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59">
         <v>854264</v>
@@ -4470,7 +3633,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4481,7 +3644,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4671,7 +3834,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>25617273</v>
@@ -4691,7 +3854,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4699,10 +3862,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4712,16 +3875,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4730,10 +3893,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4782,7 +3945,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4803,7 +3966,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4821,7 +3984,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4860,7 +4023,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4878,7 +4041,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4964,8 +4127,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5006,62 +4169,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>53224.767502480005</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>53134.094985440002</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5084,16 +4247,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5108,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5118,40 +4281,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5164,29 +4327,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5196,12 +4359,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5209,9 +4372,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5219,91 +4382,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.35166796085418528</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>0.15971157429598379</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.43886385985236792</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.71940071079975576</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.54851586746509362</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.20946817929344683</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8406209423480133</v>
+        <v>1.8376571929918371</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.435270970707993</v>
+        <v>16.408807062448922</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5312,18 +4475,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.2067479536230501</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6760019985266127E-2</v>
+        <v>5.6851561799119897E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5333,62 +4496,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8578552297991648</v>
+        <v>3.8593339593582088</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>6.7022383911839185</v>
+        <v>6.7047324039404366</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5386532115284295</v>
-      </c>
-      <c r="G29" s="278">
+        <v>4.5403928933625988</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8280333836381901</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>5.830202090382989</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5398,7 +4561,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5409,14 +4572,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5426,7 +4589,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5436,14 +4599,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5453,7 +4616,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5468,14 +4631,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6419,7 +5582,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6433,7 +5595,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6460,16 +5622,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6487,7 +5649,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6520,7 +5682,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6887,7 +6049,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6938,7 +6100,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6989,7 +6151,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7040,7 +6202,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7142,7 +6304,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7295,7 +6457,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7805,7 +6967,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8315,7 +7477,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8366,7 +7528,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8435,7 +7597,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8639,7 +7801,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8741,7 +7903,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8759,15 +7921,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>1.215022012247633</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.54851586746509362</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>1.3133751573546837</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>0.58878636798481809</v>
       </c>
       <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8810,7 +7972,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8861,7 +8023,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8912,7 +8074,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8963,7 +8125,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8980,7 +8142,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9180,15 +8342,15 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9230,7 +8392,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9280,7 +8442,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10708,11 +9870,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>8807126.0067227557</v>
+        <v>8811353.5995718837</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.67433732340308383</v>
+        <v>0.67418099894471251</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10734,7 +9896,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.038584244937085</v>
+        <v>1.0389855917988211</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10784,7 +9946,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10942,7 +10104,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11354,7 +10516,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11800,11 +10962,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8406209423480133</v>
+        <v>1.8376571929918371</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2625524.2932772459</v>
+        <v>2621296.700428118</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11822,7 +10984,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11836,11 +10998,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11851,11 +11013,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11867,11 +11029,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11888,7 +11050,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11965,7 +11127,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12011,7 +11173,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12046,7 +11208,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12085,19 +11247,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12107,18 +11269,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12195,7 +11357,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12225,7 +11387,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12255,7 +11417,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12318,7 +11480,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12348,7 +11510,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12429,7 +11591,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12460,7 +11622,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12481,28 +11643,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0844752835670611E-2</v>
+        <v>6.0942882452952409E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0844752835670611E-2</v>
+        <v>6.0942882452952409E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0844752835670611E-2</v>
+        <v>6.0942882452952409E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12532,21 +11694,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6760019985266127E-2</v>
+        <v>5.6851561799119897E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6760019985266127E-2</v>
+        <v>5.6851561799119897E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6760019985266127E-2</v>
+        <v>5.6851561799119897E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12568,24 +11730,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12602,24 +11764,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2432673094759661</v>
+        <v>7.245940155495278</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2432673094759661</v>
+        <v>7.245940155495278</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12630,18 +11792,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6279104254520433</v>
+        <v>6.6301614046523429</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6279104254520433</v>
+        <v>6.6301614046523429</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12660,14 +11822,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12684,21 +11846,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32652841.704364594</v>
+        <v>32664890.965318214</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.601183993818089</v>
+        <v>3.6025128706759251</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.601183993818089</v>
+        <v>3.6025128706759251</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7894491387011051</v>
+        <v>4.7912164985841681</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12708,14 +11870,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2807367.2743027629</v>
+        <v>-2802584.7065441557</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.309616118086178</v>
+        <v>-0.30908866302981319</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12726,17 +11888,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12224472.0389561</v>
+        <v>12223328.584213465</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1459703085697737</v>
+        <v>1.1458631166043391</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3482003630232631</v>
+        <v>1.3480742548286344</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12747,27 +11909,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>42069946.46901793</v>
+        <v>42085634.842987522</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8578552297991648</v>
+        <v>3.8593339593582088</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.437538184301685</v>
+        <v>4.4392873242504507</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.5386532115284295</v>
+        <v>4.5403928933625988</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.639768238755174</v>
+        <v>4.6414984624747468</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8280333836381901</v>
+        <v>5.830202090382989</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12777,21 +11939,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12804,31 +11966,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29878796.502493128</v>
+        <v>29888943.976604853</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8009564370993845</v>
+        <v>2.8019077014159093</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.2952428671757463</v>
+        <v>3.2963620016657758</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2952428671757463</v>
+        <v>3.2963620016657758</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.2952428671757463</v>
+        <v>3.2963620016657758</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3825581084161271</v>
+        <v>4.3840465182637116</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12838,21 +12000,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12865,31 +12027,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35057536.082833827</v>
+        <v>35070539.765980177</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.3294058334492744</v>
+        <v>3.3306208303870593</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.8663905257387157</v>
+        <v>3.867824662958113</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.9169480393520879</v>
+        <v>3.918377447514187</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.9675055529654601</v>
+        <v>3.9689302320702611</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>5.1052957460271582</v>
+        <v>5.1071243043233503</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12898,7 +12060,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7341A82B-36EE-4380-A8FB-079B6C3A7455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36635F4A-B106-4FF1-845A-71A8E7E260CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45605</v>
@@ -2841,7 +2861,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2850,15 +2870,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>9067251704</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>53132</v>
@@ -3192,9 +3212,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3212,7 +3232,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3230,7 +3250,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3247,10 +3267,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>7382230</v>
       </c>
@@ -3264,9 +3285,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3319,10 +3340,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>26334346</v>
       </c>
@@ -3338,9 +3360,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>1389487</v>
       </c>
@@ -3356,7 +3378,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3374,7 +3396,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.1484+0.1632</f>
@@ -3393,11 +3415,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6851561799119897E-2</v>
+        <v>5.6848016273446454E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3442,13 +3464,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3468,7 +3490,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>20972</v>
@@ -3480,7 +3502,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>308472</v>
@@ -3513,7 +3535,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3524,7 +3546,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>854264</v>
@@ -3562,7 +3584,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3633,7 +3655,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3644,7 +3666,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3695,7 +3717,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>9938000</v>
@@ -3834,7 +3856,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>25617273</v>
@@ -3854,7 +3876,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3862,10 +3884,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3873,7 +3895,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3881,10 +3903,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3906,7 +3928,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3945,7 +3967,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3966,7 +3988,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3984,7 +4006,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4023,7 +4045,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4041,7 +4063,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4064,28 +4086,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4127,8 +4154,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4169,7 +4196,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4184,12 +4211,12 @@
         <v>5.86</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4209,7 +4236,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4256,7 +4283,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4271,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4281,40 +4308,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4327,29 +4354,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4359,12 +4386,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4374,7 +4401,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4382,21 +4409,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="276">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>0.15971157429598379</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4404,69 +4431,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.71940071079975576</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.54851586746509362</v>
+        <v>258</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.20946817929344683</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8376571929918371</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.408807062448922</v>
+        <v>16.40983045518141</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4475,18 +4502,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6851561799119897E-2</v>
+        <v>5.6848016273446454E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4496,40 +4523,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8593339593582088</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>6.7047324039404366</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5403928933625988</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.830202090382989</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4537,21 +4564,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4561,25 +4588,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4589,7 +4616,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4599,14 +4626,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4616,7 +4643,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4631,14 +4658,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5538,27 +5565,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5590,12 +5617,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5622,16 +5649,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5649,7 +5676,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5682,7 +5709,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5693,7 +5720,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6049,7 +6076,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6100,7 +6127,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6151,7 +6178,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6202,7 +6229,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6304,7 +6331,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6457,7 +6484,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6712,7 +6739,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6763,7 +6790,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6817,15 +6844,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>35609185</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>36194678</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>33716576</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6865,50 +6892,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>22395985</v>
+        <f>Fin_Analysis!C13</f>
+        <v>308472</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>22554271</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>431184</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6916,50 +6943,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>308472</v>
+        <f>Fin_Analysis!C18</f>
+        <v>2139247</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>431184</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>2258059</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6967,101 +6994,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>2139247</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>2258059</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>7382230</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>6712617</v>
+        <f>Fin_Analysis!I15</f>
+        <v>549384</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>7382230</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>592316</v>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7069,101 +7096,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>1852861</v>
+        <f>Fin_Analysis!I34</f>
+        <v>808963</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>2478102</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>1044096</v>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>549384</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>592316</v>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>1358347</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>1636412</v>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7171,50 +7198,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>808963</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>1044096</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>26334346</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7222,50 +7249,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>1358347</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>1636412</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>1389487</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7273,50 +7300,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>27043707</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>26334346</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>19968596</v>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7324,272 +7351,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>1426434</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>1389487</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>16075596</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>13747980</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>19533589</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>19968596</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>0.25450844870697176</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>0.41656197249826282</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>16075596</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>16226082</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>0.25450844870697176</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>0.35294322231741876</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.35166796085418528</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.34537826194657922</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.43886385985236792</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.3855127788163944</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.35166796085418528</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.34537826194657922</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>3.8846727170509146E-2</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7597,50 +7624,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.43886385985236792</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.3855127788163944</v>
+        <f t="shared" si="37"/>
+        <v>1.5785324837725313E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7648,50 +7675,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>3.8846727170509146E-2</v>
+        <f t="shared" si="38"/>
+        <v>3.7902298005128792E-4</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7699,50 +7726,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.7202256703967287E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.5785324837725313E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7750,221 +7777,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.2067479536230501</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>3.7902298005128792E-4</v>
+        <f t="shared" si="40"/>
+        <v>0.22830467660269341</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.2067479536230501</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.22830467660269341</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.63206100761832995</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>1.5792995802879992E-2</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>2.0232994960849439E-2</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.54851586746509362</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>0.58878636798481809</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.1095241023247608</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>0.10595777294217949</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7972,522 +7999,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>1.5792995802879992E-2</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>2.0232994960849439E-2</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>0.18998161609687811</v>
+      </c>
+      <c r="D51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.1095241023247608</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>0.10595777294217949</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>0.18998161609687811</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.73983962665722636</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>2.9729097204175368</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>2.9732033660634771</v>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.71940071079975576</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.68918582450160215</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>1.3157207230966536E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>6.9141487036622033E-3</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>2.9729097204175368</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>2.9732033660634771</v>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>1.3157207230966536E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>6.9141487036622033E-3</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>3.3364014362803656</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>3.055211094750502</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>0.22958180147126375</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>0.19504562710363152</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>0.15971157429598382</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>0.22958180147126375</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>0.15763750497564671</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>0.19504562710363152</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9047,12 +8978,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9734,27 +9661,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9868,13 +9798,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>8811353.5995718837</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.67418099894471251</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9894,9 +9824,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0389855917988211</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9946,7 +9876,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9993,7 +9923,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10021,7 +9951,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10104,7 +10034,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10126,7 +10056,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10194,7 +10124,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10516,7 +10446,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10653,7 +10583,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10940,9 +10870,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10960,13 +10890,13 @@
         <f>MAX(D4,0)</f>
         <v>1426434</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8376571929918371</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2621296.700428118</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10984,7 +10914,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11050,7 +10980,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11085,7 +11015,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11106,7 +11036,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11127,7 +11057,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11142,7 +11072,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11173,7 +11103,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11187,7 +11117,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11208,7 +11138,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11223,7 +11153,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11245,7 +11175,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11253,11 +11183,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11285,7 +11215,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11357,7 +11287,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11387,7 +11317,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11417,7 +11347,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11475,12 +11405,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11510,7 +11440,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11540,7 +11470,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11591,7 +11521,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11622,7 +11552,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11643,28 +11573,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0942882452952409E-2</v>
+        <v>6.0939081773648048E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0942882452952409E-2</v>
+        <v>6.0939081773648048E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0942882452952409E-2</v>
+        <v>6.0939081773648048E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11694,21 +11624,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6851561799119897E-2</v>
+        <v>5.6848016273446454E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6851561799119897E-2</v>
+        <v>5.6848016273446454E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6851561799119897E-2</v>
+        <v>5.6848016273446454E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11725,27 +11655,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11764,24 +11694,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.245940155495278</v>
+        <v>7.2453584864331733</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.245940155495278</v>
+        <v>7.2453584864331733</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11792,18 +11722,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6301614046523429</v>
+        <v>6.6296367105523846</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6301614046523429</v>
+        <v>6.6296367105523846</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11822,14 +11752,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11842,63 +11772,63 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32664890.965318214</v>
+        <v>32662268.785713661</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6025128706759251</v>
+        <v>3.6022236783506041</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6025128706759251</v>
+        <v>3.6022236783506041</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7912164985841681</v>
+        <v>4.7908318828756107</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-2802584.7065441557</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.30908866302981319</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12223328.584213465</v>
+        <v>12222566.281051708</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1458631166043391</v>
+        <v>1.1457916552940495</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3480742548286344</v>
+        <v>1.3479901826988818</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -11907,29 +11837,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>42085634.842987522</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8593339593582088</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4392873242504507</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>4.5403928933625988</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6414984624747468</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.830202090382989</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11939,21 +11869,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11966,31 +11896,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29888943.976604853</v>
+        <v>29886578.641645215</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8019077014159093</v>
+        <v>2.8016859655712092</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.2963620016657758</v>
+        <v>3.2961011359661283</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2963620016657758</v>
+        <v>3.2961011359661283</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.2963620016657758</v>
+        <v>3.2961011359661283</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3840465182637116</v>
+        <v>4.3836995759795521</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12000,21 +11930,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12027,31 +11957,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35070539.765980177</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>3.3306208303870593</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>3.867824662958113</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>3.918377447514187</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>3.9689302320702611</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>5.1071243043233503</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12060,7 +11990,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36635F4A-B106-4FF1-845A-71A8E7E260CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{681C7CB7-EE75-4CBB-80FE-329CF6DA7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45605</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>9067251704</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>271</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>272</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>274</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,436 +3048,440 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>19532203</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>21310933</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>6868850</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>7360333</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>8571978</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>8215637</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>53132</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>33640</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-99657</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>6058</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-337926</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>827860</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>630037</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>543737</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>630037</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>543737</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>22554271</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <v>431184</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>2258059</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>8565478</v>
+      </c>
+      <c r="D37" s="149">
         <v>7382230</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>2478102</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>592316</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>1044096</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>27043707</v>
+      </c>
+      <c r="D41" s="149">
         <v>26334346</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>1426434</v>
+      </c>
+      <c r="D42" s="149">
         <v>1389487</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <v>19968596</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.1484+0.1632</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.6848016273446454E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>5.7291136997155045E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3546,7 +3558,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>854264</v>
@@ -3578,7 +3590,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3590,7 +3602,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3609,8 +3621,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3666,7 +3678,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3684,7 +3696,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3698,7 +3710,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3711,7 +3723,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3767,16 +3779,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>112402</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3806,7 +3818,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="119">
         <v>9668</v>
       </c>
     </row>
@@ -3844,21 +3856,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214">
         <v>1852861</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>268</v>
+      </c>
+      <c r="C83" s="214">
         <v>25617273</v>
       </c>
     </row>
@@ -3876,20 +3888,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3919,10 +3931,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3934,12 +3946,12 @@
         <f>C25</f>
         <v>19532203</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>19532203</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>19532203</v>
       </c>
@@ -3952,75 +3964,75 @@
         <f>C26</f>
         <v>6868850</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>6868850</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>6868850</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>8571978</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>8571978</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>8571978</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>53132</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>53131.999999999993</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4033,12 +4045,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4051,12 +4063,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4065,16 +4077,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.31159999999999999</v>
       </c>
@@ -4155,7 +4167,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4207,11 +4219,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>5.86</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>5.81</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4249,7 +4261,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>53134.094985440002</v>
+        <v>52680.732400239998</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4259,11 +4271,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4285,11 +4297,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
@@ -4297,8 +4309,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4307,10 +4319,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4318,7 +4330,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4326,13 +4338,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4341,12 +4353,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4356,7 +4368,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4367,7 +4379,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4375,13 +4387,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4391,129 +4403,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.15971157429598379</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.71940071079975576</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.54851586746509362</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.8235574811189477</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.40983045518141</v>
+        <v>16.282907927049411</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.93286630876064991</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.6848016273446454E-2</v>
+        <v>5.7291136997155045E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4530,10 +4542,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4541,22 +4553,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>3.864804491434398</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>6.7138843716067313</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>4.5468288134522332</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>5.8381603231362886</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4564,23 +4576,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4588,9 +4600,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4598,17 +4610,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4616,26 +4628,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4643,9 +4655,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>disagree</v>
       </c>
@@ -4658,16 +4670,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5619,10 +5631,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5648,16 +5660,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5671,11 +5683,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5700,7 +5712,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5708,7 +5720,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5772,47 +5784,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>19532203</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>21310933</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5874,47 +5886,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6868850</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>7360333</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5925,47 +5937,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>12663353</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>13950600</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5976,47 +5988,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>8571978</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>8215637</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6027,47 +6039,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6076,49 +6088,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8077.333333333333</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6126,50 +6138,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.26872993625697511</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6177,50 +6189,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>4091375</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>5726885.666666667</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6228,50 +6240,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.28558465488252288</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6282,47 +6294,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-337926</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>827860</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6331,49 +6343,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>53132</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>33640</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6384,47 +6396,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.2256320498000146E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>2.5514462459245685E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6435,47 +6447,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>630037</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>543737</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6484,49 +6496,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.2256320498000146E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>2.5514462459245685E-2</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6537,47 +6549,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>630037</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>543737</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6588,47 +6600,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>4038243</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4865385.666666667</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6639,47 +6651,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.17122850745202006</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6690,7 +6702,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>3028682.25</v>
       </c>
@@ -6738,50 +6750,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.17000557064438263</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6845,7 +6857,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>35609185</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6898,43 +6910,43 @@
         <f>Fin_Analysis!C13</f>
         <v>308472</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6949,43 +6961,43 @@
         <f>Fin_Analysis!C18</f>
         <v>2139247</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6994,49 +7006,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>8565478</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7051,43 +7063,43 @@
         <f>Fin_Analysis!I15</f>
         <v>549384</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7102,43 +7114,43 @@
         <f>Fin_Analysis!I34</f>
         <v>808963</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7202,45 +7214,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>27043707</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7253,45 +7265,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>1426434</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7306,43 +7318,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7404,47 +7416,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.25450844870697176</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.41656197249826282</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7453,7 +7465,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7473,47 +7485,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.34537826194657922</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7522,49 +7534,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.3855127788163944</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7575,47 +7587,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>3.8846727170509146E-2</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7626,47 +7638,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.5785324837725313E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7677,47 +7689,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>3.7902298005128792E-4</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7726,49 +7738,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7779,47 +7791,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.22830467660269341</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7828,9 +7840,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7845,50 +7859,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>0.54851586746509362</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>0.63206100761832995</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7897,49 +7911,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>1.5792995802879992E-2</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>2.0232994960849439E-2</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7948,49 +7962,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.1095241023247608</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>0.10595777294217949</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7999,49 +8013,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.18998161609687811</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8050,7 +8064,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8067,49 +8081,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.71940071079975576</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.73983962665722636</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8119,47 +8133,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>2.9729097204175368</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>2.9732033660634771</v>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8169,47 +8183,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.3157207230966536E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>6.9141487036622033E-3</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8219,47 +8233,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8267,149 +8281,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>0.15971157429598382</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>0.22958180147126375</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>0.15763750497564671</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>0.19504562710363152</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9705,8 +9719,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9742,8 +9756,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>27043707</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9755,8 +9769,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>25617273</v>
       </c>
       <c r="K3" s="24"/>
@@ -9766,8 +9780,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>1426434</v>
       </c>
       <c r="E4" s="37"/>
@@ -9798,13 +9812,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>8831465.9079775754</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>0.67343730251264833</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9824,9 +9838,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>1.040454875728567</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9854,11 +9868,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9901,7 +9915,7 @@
         <f>Inputs!C48</f>
         <v>19073030</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9929,7 +9943,7 @@
         <f>Inputs!C49</f>
         <v>20972</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9957,7 +9971,7 @@
         <f>Inputs!C50</f>
         <v>308472</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9985,7 +9999,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9998,7 +10012,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>9668</v>
       </c>
@@ -10013,7 +10027,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10040,7 +10054,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10062,7 +10076,7 @@
         <f>Inputs!C54</f>
         <v>854264</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10084,7 +10098,7 @@
         <f>Inputs!C55</f>
         <v>2139247</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10105,7 +10119,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10113,7 +10127,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10130,7 +10144,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10138,7 +10152,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10157,7 +10171,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10178,7 +10192,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10343,7 +10357,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>6712617</v>
       </c>
@@ -10372,7 +10386,7 @@
         <f>Inputs!C60</f>
         <v>300000</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10398,7 +10412,7 @@
         <f>Inputs!C61</f>
         <v>1800</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10425,7 +10439,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10452,7 +10466,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10468,7 +10482,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10482,7 +10496,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10509,7 +10523,7 @@
         <f>Inputs!C65</f>
         <v>113569</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10517,7 +10531,7 @@
         <f t="shared" si="1"/>
         <v>11356.900000000001</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10535,7 +10549,7 @@
         <f>Inputs!C66</f>
         <v>45190</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10543,7 +10557,7 @@
         <f t="shared" si="1"/>
         <v>9038</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10562,7 +10576,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10570,7 +10584,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10589,7 +10603,7 @@
         <f>Inputs!C68</f>
         <v>9938000</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10610,7 +10624,7 @@
         <f>Inputs!C69</f>
         <v>2304520</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10631,7 +10645,7 @@
         <f>Inputs!C70</f>
         <v>15244</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10652,7 +10666,7 @@
         <f>Inputs!C71</f>
         <v>382475</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10673,7 +10687,7 @@
         <f>Inputs!C72</f>
         <v>112402</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10819,8 +10833,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>1852861</v>
       </c>
       <c r="J48" s="8"/>
@@ -10846,8 +10860,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>8565478</v>
       </c>
       <c r="J49" s="87"/>
@@ -10870,9 +10884,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10890,13 +10904,13 @@
         <f>MAX(D4,0)</f>
         <v>1426434</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1.8235574811189477</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>2601184.3920224248</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10917,7 +10931,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11017,7 +11031,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>19373030</v>
       </c>
@@ -11025,7 +11039,7 @@
         <f t="shared" si="2"/>
         <v>0.88606309906091096</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>17165727</v>
       </c>
@@ -11056,11 +11070,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>1358347</v>
@@ -11137,12 +11151,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>7207131</v>
       </c>
@@ -11221,17 +11235,17 @@
         <f>Data!C6</f>
         <v>19532203</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>19532203</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>19532203</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11242,23 +11256,23 @@
         <f>Data!C8</f>
         <v>6868850</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>6868850</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>6868850</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.35166796085418528</v>
       </c>
@@ -11268,48 +11282,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>12663353</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>12663353</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>12663353</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>8571978</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>8571978</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>8571978</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.43886385985236792</v>
       </c>
@@ -11323,54 +11337,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>4091375</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>4091375</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>4091375</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.20946817929344683</v>
       </c>
@@ -11384,55 +11398,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>53132</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>53131.999999999993</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>53131.999999999993</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.7202256703967287E-3</v>
       </c>
@@ -11440,29 +11454,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11472,27 +11486,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>4038243</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>4038243</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>4038243</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.2067479536230501</v>
       </c>
@@ -11502,49 +11516,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.15506096521728757</v>
       </c>
@@ -11554,69 +11568,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0939081773648048E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>6.1414091664719478E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0939081773648048E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>6.1414091664719478E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0939081773648048E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>6.1414091664719478E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.93286630876064991</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.93286630876064991</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.93286630876064991</v>
       </c>
@@ -11624,23 +11638,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6848016273446454E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>5.7291136997155045E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6848016273446454E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>5.7291136997155045E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.6848016273446454E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>5.7291136997155045E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11662,7 +11676,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11685,27 +11699,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2453584864331733</v>
+        <v>7.2557536412480985</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2453584864331733</v>
+        <v>7.2557536412480985</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11713,27 +11727,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6296367105523846</v>
+        <v>6.6382048352286791</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6296367105523846</v>
+        <v>6.6382048352286791</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11747,25 +11761,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11776,21 +11790,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32662268.785713661</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>32709130.420133814</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6022236783506041</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>3.6073919074844087</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6022236783506041</v>
-      </c>
-      <c r="I97" s="123">
+        <v>3.6073919074844087</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7908318828756107</v>
+        <v>4.7977054474077212</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11798,18 +11812,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-2778671.8677511164</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-0.3064513877479888</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11818,48 +11832,48 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12222566.281051708</v>
-      </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+        <v>12212738.112636073</v>
+      </c>
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1457916552940495</v>
-      </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+        <v>1.1448703239550722</v>
+      </c>
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3479901826988818</v>
-      </c>
-      <c r="I99" s="216"/>
+        <v>1.3469062634765556</v>
+      </c>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>42143196.665018767</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>3.864804491434398</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>4.4458108436914916</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>4.5468288134522332</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>4.6478467832129748</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>5.8381603231362886</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11871,25 +11885,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11900,27 +11914,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29886578.641645215</v>
+        <v>29925203.975600827</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8016859655712092</v>
-      </c>
-      <c r="E103" s="123">
+        <v>2.8053068569872694</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.2961011359661283</v>
+        <v>3.300361008220317</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.2961011359661283</v>
-      </c>
-      <c r="H103" s="123">
+        <v>3.300361008220317</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.2961011359661283</v>
+        <v>3.300361008220317</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3836995759795521</v>
+        <v>4.3893650575361249</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11932,25 +11946,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11959,29 +11973,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>35118244.961862095</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>3.3350556742108335</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>3.8730859259559045</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>3.9235949108362753</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>3.9741038957166461</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>5.1137626903362072</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11992,14 +12006,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{681C7CB7-EE75-4CBB-80FE-329CF6DA7D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2D1602-6543-4C9E-83BE-A10BE4671A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7291136997155045E-2</v>
+        <v>5.7289348978183767E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4310,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8235574811189477</v>
+        <v>1.8236143949332886</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.282907927049411</v>
+        <v>16.283416121832573</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7291136997155045E-2</v>
+        <v>5.7289348978183767E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4555,20 +4555,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.864804491434398</v>
+        <v>3.8646480594920729</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>6.7138843716067313</v>
+        <v>6.7136140225746095</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5468288134522332</v>
+        <v>4.5466447758730268</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8381603231362886</v>
+        <v>5.8379252370214001</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -9814,11 +9814,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>8831465.9079775754</v>
+        <v>8831384.7241777293</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.67343730251264833</v>
+        <v>0.67344030446056347</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9840,7 +9840,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.040454875728567</v>
+        <v>1.0404128396636907</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10906,11 +10906,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8235574811189477</v>
+        <v>1.8236143949332886</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2601184.3920224248</v>
+        <v>2601265.5758222705</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11591,17 +11591,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1414091664719478E-2</v>
+        <v>6.1412174971025538E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1414091664719478E-2</v>
+        <v>6.1412174971025538E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1414091664719478E-2</v>
+        <v>6.1412174971025538E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11642,17 +11642,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7291136997155045E-2</v>
+        <v>5.7289348978183767E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7291136997155045E-2</v>
+        <v>5.7289348978183767E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7291136997155045E-2</v>
+        <v>5.7289348978183767E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11712,14 +11712,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2557536412480985</v>
+        <v>7.2554616842660211</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2557536412480985</v>
+        <v>7.2554616842660211</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11740,14 +11740,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6382048352286791</v>
+        <v>6.6379415327264155</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6382048352286791</v>
+        <v>6.6379415327264155</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11790,21 +11790,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32709130.420133814</v>
+        <v>32707814.270292461</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6073919074844087</v>
+        <v>3.6072467532652119</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6073919074844087</v>
+        <v>3.6072467532652119</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7977054474077212</v>
+        <v>4.7975123973577087</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11814,14 +11814,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-2778671.8677511164</v>
+        <v>-2778671.8677511159</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.3064513877479888</v>
+        <v>-0.30645138774798875</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11832,17 +11832,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12212738.112636073</v>
+        <v>12212356.961055197</v>
       </c>
       <c r="D99" s="211"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1448703239550722</v>
+        <v>1.1448345932999278</v>
       </c>
       <c r="F99" s="211"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3469062634765556</v>
+        <v>1.3468642274116798</v>
       </c>
       <c r="I99" s="213"/>
       <c r="K99" s="24"/>
@@ -11853,27 +11853,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>42143196.665018767</v>
+        <v>42141499.363596544</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.864804491434398</v>
+        <v>3.8646480594920729</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4458108436914916</v>
+        <v>4.4456299588171504</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.5468288134522332</v>
+        <v>4.5466447758730268</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6478467832129748</v>
+        <v>4.6476595929289033</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8381603231362886</v>
+        <v>5.8379252370214001</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11914,27 +11914,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29925203.975600827</v>
+        <v>29924017.000916693</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8053068569872694</v>
+        <v>2.8051955852905688</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.300361008220317</v>
+        <v>3.3002301003418459</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>3.300361008220317</v>
+        <v>3.3002301003418459</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.300361008220317</v>
+        <v>3.3002301003418459</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3893650575361249</v>
+        <v>4.3891909546225083</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11975,27 +11975,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35118244.961862095</v>
+        <v>35116831.410177477</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.3350556742108335</v>
+        <v>3.3349218223913208</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.8730859259559045</v>
+        <v>3.8729300295794982</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.9235949108362753</v>
+        <v>3.9234374381074364</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>3.9741038957166461</v>
+        <v>3.9739448466353746</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>5.1137626903362072</v>
+        <v>5.1135580958219542</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2D1602-6543-4C9E-83BE-A10BE4671A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEC5D6B-E799-4F9C-AC51-3EE70941B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>9067251704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>9067251704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>274</v>
-      </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,452 +3039,453 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>19532203</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>21310933</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>6868850</v>
+      </c>
+      <c r="D26" s="148">
+        <v>7360333</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>8571978</v>
+      </c>
+      <c r="D27" s="148">
+        <v>8215637</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>6868850</v>
-      </c>
-      <c r="D26" s="149">
-        <v>7360333</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>53132</v>
+      </c>
+      <c r="D29" s="148">
+        <v>33640</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-99657</v>
+      </c>
+      <c r="D30" s="148">
+        <v>6058</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-337926</v>
+      </c>
+      <c r="D31" s="148">
+        <v>827860</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>8571978</v>
-      </c>
-      <c r="D27" s="149">
-        <v>8215637</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>630037</v>
+      </c>
+      <c r="D32" s="148">
+        <v>543737</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>53132</v>
-      </c>
-      <c r="D29" s="149">
-        <v>33640</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>-99657</v>
-      </c>
-      <c r="D30" s="149">
-        <v>6058</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-337926</v>
-      </c>
-      <c r="D31" s="149">
-        <v>827860</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
+      <c r="C33" s="148">
         <v>630037</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D33" s="148">
         <v>543737</v>
       </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
-        <v>630037</v>
-      </c>
-      <c r="D33" s="149">
-        <v>543737</v>
-      </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>22554271</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <v>431184</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>2258059</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148">
         <v>8565478</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>7382230</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>2478102</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <v>592316</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>1044096</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>27043707</v>
+      </c>
+      <c r="D41" s="148">
+        <v>26334346</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>27043707</v>
-      </c>
-      <c r="D41" s="149">
-        <v>26334346</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>1426434</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>1389487</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <v>19968596</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.1484+0.1632</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7289348978183767E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>5.7474682420303437E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>19073030</v>
@@ -3498,11 +3493,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>20972</v>
@@ -3510,11 +3505,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>308472</v>
@@ -3523,42 +3518,42 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <v>854264</v>
@@ -3566,11 +3561,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>2139247</v>
@@ -3579,58 +3574,58 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>300000</v>
@@ -3639,11 +3634,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <v>1800</v>
@@ -3652,43 +3647,43 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>113569</v>
@@ -3696,13 +3691,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>45190</v>
@@ -3710,26 +3705,26 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>9938000</v>
@@ -3738,11 +3733,11 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59">
         <v>2304520</v>
@@ -3751,11 +3746,11 @@
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>15244</v>
@@ -3763,11 +3758,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>382475</v>
@@ -3776,23 +3771,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>112402</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>510909</v>
@@ -3800,7 +3795,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>28807</v>
@@ -3808,17 +3803,17 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119">
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118">
         <v>9668</v>
       </c>
     </row>
@@ -3826,13 +3821,13 @@
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>6712617</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>756896</v>
@@ -3840,7 +3835,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>52067</v>
@@ -3848,77 +3843,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214">
+        <v>264</v>
+      </c>
+      <c r="C82" s="212">
         <v>1852861</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214">
+        <v>265</v>
+      </c>
+      <c r="C83" s="212">
         <v>25617273</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3927,166 +3922,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>19532203</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>19532203</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>19532203</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>6868850</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>6868850</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>6868850</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>8571978</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>8571978</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>8571978</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>53132</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>53131.999999999993</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.31159999999999999</v>
       </c>
@@ -4099,32 +4094,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4183,13 +4178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4200,82 +4195,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>6186.HK : 中国飞鹤</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>5.81</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>5.79</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>52680.732400239998</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>52499.387366160001</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4286,31 +4281,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0002</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4319,280 +4314,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.15971157429598379</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.71940071079975576</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.54851586746509362</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8236143949332886</v>
+        <v>1.8177339495148974</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.283416121832573</v>
+        <v>16.230908453547308</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.93286630876064991</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7289348978183767E-2</v>
+        <v>5.7474682420303437E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8646480594920729</v>
-      </c>
-      <c r="D29" s="128">
+        <v>3.8675136657308236</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.7136140225746095</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>6.7184478870698969</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5466447758730268</v>
-      </c>
-      <c r="G29" s="286">
+        <v>4.5500160773303806</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8379252370214001</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>5.8421285974520849</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4600,9 +4595,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4610,17 +4605,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4628,26 +4623,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4655,9 +4650,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>disagree</v>
       </c>
@@ -4670,16 +4665,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5631,10 +5626,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5660,59 +5655,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>4091375</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5720,19 +5715,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5781,928 +5776,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>19532203</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>21310933</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-8.3465608943540825E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6868850</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>7360333</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>12663353</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>13950600</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>8571978</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>8215637</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>8077.333333333333</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.26872993625697511</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>4091375</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>5726885.666666667</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.28558465488252288</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-337926</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>827860</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>53132</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>33640</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>3.2256320498000146E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>2.5514462459245685E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>630037</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>543737</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>3.2256320498000146E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>2.5514462459245685E-2</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>630037</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>543737</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>4038243</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>4865385.666666667</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.17122850745202006</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>3028682.25</v>
       </c>
@@ -6746,63 +6741,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.17000557064438263</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6848,11 +6843,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6899,266 +6894,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>308472</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>431184</v>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>2139247</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>2258059</v>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>8565478</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>7382230</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>549384</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>592316</v>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>808963</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>1044096</v>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7205,165 +7200,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>27043707</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>26334346</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>1426434</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>1389487</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>19968596</v>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7409,63 +7404,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>0.25450844870697176</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>0.41656197249826282</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7478,372 +7473,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.34537826194657922</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.3855127788163944</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>3.8846727170509146E-2</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.5785324837725313E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>3.7902298005128792E-4</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.22830467660269341</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7855,216 +7850,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.54851586746509362</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>0.63206100761832995</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>1.5792995802879992E-2</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>2.0232994960849439E-2</v>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.1095241023247608</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>0.10595777294217949</v>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>0.18998161609687811</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8080,350 +8075,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.71940071079975576</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.73983962665722636</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>2.9729097204175368</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>2.9732033660634771</v>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>1.3157207230966536E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>6.9141487036622033E-3</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>7.3498032540433522E-2</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>0.15971157429598382</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>0.22958180147126375</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>0.15763750497564671</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>0.19504562710363152</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9702,7 +9697,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9720,7 +9715,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9738,25 +9733,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>27043707</v>
       </c>
@@ -9764,12 +9759,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>25617273</v>
       </c>
@@ -9777,28 +9772,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>1426434</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9811,25 +9806,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>8831384.7241777293</v>
+        <v>8839772.7914576679</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.67344030446056347</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>0.67313013739360261</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>3.0177109762109176</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9837,297 +9832,297 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0404128396636907</v>
+        <v>1.0411735474248676</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>2.8904485389230459</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>19073030</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>17165727</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>510909</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>20972</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>16777.600000000002</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>28807</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>308472</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>185083.19999999998</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>9668</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>549384</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>854264</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>85426.400000000009</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>2139247</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>1069623.5</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10138,21 +10133,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10165,45 +10160,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10211,17 +10206,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10231,19 +10226,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.89512233336841485</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>17367587.800000001</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.93764117623485133</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10253,17 +10248,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.1</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>85426.400000000009</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>4.6119997261513147E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10272,7 +10267,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10282,17 +10277,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>1069623.5</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>5.7746824038997425E-2</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10305,7 +10300,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10315,17 +10310,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10352,12 +10347,12 @@
         <f>SUM(E24:E27)</f>
         <v>18522637.699999999</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>6712617</v>
       </c>
@@ -10367,171 +10362,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>300000</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>756896</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>1800</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>1080</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>52067</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>808963</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>113569</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>11356.900000000001</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10539,25 +10534,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>45190</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>9038</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10565,26 +10560,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10592,113 +10587,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>9938000</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>993800</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>2304520</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>115226</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>15244</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>762.2</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>382475</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>344227.5</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>112402</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10706,17 +10701,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10726,16 +10721,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>3.5785288270377734E-3</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>1080</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10745,16 +10740,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.10000000000000002</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>11356.900000000001</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10764,14 +10759,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>9.0990428647811511E-2</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>1118064</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10784,7 +10779,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10794,14 +10789,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.67628993905367552</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>344989.7</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10814,13 +10809,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>13213200</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.1116679229861048</v>
       </c>
@@ -10828,12 +10823,12 @@
         <f>SUM(E30:E42)</f>
         <v>1475490.5999999999</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>1852861</v>
       </c>
@@ -10844,109 +10839,109 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>35609185</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.56160028093875225</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>19998128.300000001</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>8565478</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>1426434</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8236143949332886</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.8177339495148974</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2601265.5758222705</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>2592877.5085423333</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10954,61 +10949,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11022,35 +11017,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>21474.9</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>19373030</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.88606309906091096</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>17165727</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11064,29 +11059,29 @@
         <f>E61+E62</f>
         <v>17187201.899999999</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>1358347</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11100,9 +11095,9 @@
         <f>E63-E64</f>
         <v>15828854.899999999</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11110,28 +11105,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11145,29 +11140,29 @@
         <f>E49-E63</f>
         <v>2810926.4000000022</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>7207131</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11181,29 +11176,29 @@
         <f>E68-E69</f>
         <v>-4396204.5999999978</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11213,66 +11208,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>19532203</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>19532203</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>19532203</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>6868850</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>6868850</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.35166796085418528</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>6868850</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.35166796085418528</v>
       </c>
@@ -11280,50 +11275,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>12663353</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>12663353</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>12663353</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>8571978</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>8571978</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.43886385985236792</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>8571978</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.43886385985236792</v>
       </c>
@@ -11331,60 +11326,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>4091375</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>4091375</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.20946817929344683</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>4091375</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.20946817929344683</v>
       </c>
@@ -11392,61 +11387,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>53132</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>53131.999999999993</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>53131.999999999993</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.7202256703967287E-3</v>
       </c>
@@ -11454,59 +11449,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>4038243</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>4038243</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.2067479536230501</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>4038243</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.2067479536230501</v>
       </c>
@@ -11514,184 +11509,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.15506096521728757</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>3028682.25</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.15506096521728757</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.33402428308722287</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1412174971025538E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>6.1610845927816654E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1412174971025538E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>6.1610845927816654E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1412174971025538E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>6.1610845927816654E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.93286630876064991</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.93286630876064991</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.31159999999999999</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.93286630876064991</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7289348978183767E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>5.7474682420303437E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7289348978183767E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>5.7474682420303437E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7289348978183767E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>5.7474682420303437E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11699,55 +11694,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2554616842660211</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>7.2606681397093906</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2554616842660211</v>
+        <v>7.2606681397093906</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6379415327264155</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>6.6423102036572983</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6379415327264155</v>
+        <v>6.6423102036572983</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11757,123 +11752,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32707814.270292461</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>32731285.109924566</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6072467532652119</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>3.6098352817850223</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6072467532652119</v>
-      </c>
-      <c r="I97" s="122">
+        <v>3.6098352817850223</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7975123973577087</v>
+        <v>4.8009550500272171</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-2769106.7322339006</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-0.30539647763525907</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-2778671.8677511159</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.30645138774798875</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12212356.961055197</v>
-      </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+        <v>12209689.354281755</v>
+      </c>
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1448345932999278</v>
-      </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+        <v>1.1445845213011077</v>
+      </c>
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3468642274116798</v>
-      </c>
-      <c r="I99" s="213"/>
+        <v>1.3465700250601267</v>
+      </c>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>42141499.363596544</v>
-      </c>
-      <c r="D100" s="109">
+        <v>42171867.731972419</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8646480594920729</v>
-      </c>
-      <c r="E100" s="109">
+        <v>3.8675136657308236</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4456299588171504</v>
-      </c>
-      <c r="F100" s="109">
+        <v>4.4490233254508711</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.5466447758730268</v>
-      </c>
-      <c r="H100" s="109">
+        <v>4.5500160773303806</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6476595929289033</v>
-      </c>
-      <c r="I100" s="109">
+        <v>4.6510088292098901</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8379252370214001</v>
+        <v>5.8421285974520849</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11883,58 +11878,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29924017.000916693</v>
-      </c>
-      <c r="D103" s="109">
+        <v>29943711.085681166</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8051955852905688</v>
-      </c>
-      <c r="E103" s="122">
+        <v>2.8070417866089263</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.3002301003418459</v>
-      </c>
-      <c r="F103" s="109">
+        <v>3.3024021018928544</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>3.3002301003418459</v>
-      </c>
-      <c r="H103" s="122">
+        <v>3.3024021018928544</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.3002301003418459</v>
-      </c>
-      <c r="I103" s="109">
+        <v>3.3024021018928544</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3891909546225083</v>
+        <v>4.3920796409477818</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11944,58 +11939,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35116831.410177477</v>
-      </c>
-      <c r="D106" s="109">
+        <v>35142062.707255661</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.3349218223913208</v>
-      </c>
-      <c r="E106" s="122">
+        <v>3.3372777261698747</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.8729300295794982</v>
-      </c>
-      <c r="F106" s="109">
+        <v>3.875712713671863</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.9234374381074364</v>
-      </c>
-      <c r="H106" s="122">
+        <v>3.9262090896116177</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.9739448466353746</v>
-      </c>
-      <c r="I106" s="122">
+        <v>3.9767054655513725</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>5.1135580958219542</v>
+        <v>5.1171041191999329</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12004,15 +11999,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEC5D6B-E799-4F9C-AC51-3EE70941B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A0D323-20AC-47FE-A1CB-A7FA48627CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,6 +2948,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3425,7 +3442,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7474682420303437E-2</v>
+        <v>5.7541901014805386E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3904,11 +3921,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3922,10 +3939,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4147,8 +4164,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4161,8 +4181,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4205,60 +4225,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>52499.387366160001</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>52408.714849120006</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4281,11 +4301,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4305,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4426,7 +4446,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.15971157429598379</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4438,20 +4458,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.71940071079975576</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.20946817929344683</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.54851586746509362</v>
       </c>
@@ -4460,26 +4480,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.20946817929344683</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.3900458881786519</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8177339495148974</v>
+        <v>1.8156105312907858</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.7202256703967287E-3</v>
       </c>
@@ -4488,7 +4508,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.230908453547308</v>
+        <v>16.211948029326066</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4520,7 +4540,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7474682420303437E-2</v>
+        <v>5.7541901014805386E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4539,10 +4559,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4550,22 +4570,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8675136657308236</v>
+        <v>3.8666933410242654</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.7184478870698969</v>
+        <v>6.7169711765648961</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5500160773303806</v>
-      </c>
-      <c r="G29" s="285">
+        <v>4.5490509894403122</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8421285974520849</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>5.8408445013607793</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5596,7 +5616,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7837,7 +7857,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9764,7 +9784,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>25617273</v>
       </c>
@@ -9809,11 +9829,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>8839772.7914576679</v>
+        <v>8842801.7074087597</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.67313013739360261</v>
+        <v>0.6730181366256941</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -9835,7 +9855,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0411735474248676</v>
+        <v>1.04094745967344</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10811,7 +10831,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>13213200</v>
       </c>
@@ -10828,7 +10848,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>1852861</v>
       </c>
@@ -10901,11 +10921,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8177339495148974</v>
+        <v>1.8156105312907858</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2592877.5085423333</v>
+        <v>2589848.5925912405</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10937,11 +10957,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10952,11 +10972,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10968,11 +10988,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11186,19 +11206,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11208,18 +11228,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11586,17 +11606,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1610845927816654E-2</v>
+        <v>6.1682901906117825E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1610845927816654E-2</v>
+        <v>6.1682901906117825E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1610845927816654E-2</v>
+        <v>6.1682901906117825E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11637,17 +11657,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7474682420303437E-2</v>
+        <v>5.7541901014805386E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7474682420303437E-2</v>
+        <v>5.7541901014805386E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7474682420303437E-2</v>
+        <v>5.7541901014805386E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11678,15 +11698,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11707,14 +11727,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2606681397093906</v>
+        <v>7.2590680731882813</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2606681397093906</v>
+        <v>7.2590680731882813</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11735,14 +11755,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6423102036572983</v>
+        <v>6.6407033418192576</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6423102036572983</v>
+        <v>6.6407033418192576</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11785,21 +11805,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32731285.109924566</v>
+        <v>32724071.967485119</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6098352817850223</v>
+        <v>3.6090397659357971</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6098352817850223</v>
+        <v>3.6090397659357971</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8009550500272171</v>
+        <v>4.7998970416873394</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11809,14 +11829,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-2769106.7322339006</v>
+        <v>-2764324.1644752934</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.30539647763525907</v>
+        <v>-0.3048690225788942</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11827,17 +11847,17 @@
       </c>
       <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12209689.354281755</v>
+        <v>12202856.791973764</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1445845213011077</v>
+        <v>1.1439440099144842</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3465700250601267</v>
+        <v>1.3458164822523344</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11848,27 +11868,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>42171867.731972419</v>
+        <v>42162604.594983593</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8675136657308236</v>
+        <v>3.8666933410242654</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4490233254508711</v>
+        <v>4.4481147532713869</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.5500160773303806</v>
+        <v>4.5490509894403122</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6510088292098901</v>
+        <v>4.6499872256092374</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8421285974520849</v>
+        <v>5.8408445013607793</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11909,27 +11929,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29943711.085681166</v>
+        <v>29936467.309772234</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8070417866089263</v>
+        <v>2.8063627264346205</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.3024021018928544</v>
+        <v>3.301603207570142</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>3.3024021018928544</v>
+        <v>3.301603207570142</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.3024021018928544</v>
+        <v>3.301603207570142</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3920796409477818</v>
+        <v>4.3910171393559727</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11970,27 +11990,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35142062.707255661</v>
+        <v>35134321.69297988</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.3372777261698747</v>
+        <v>3.3365280337294427</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.875712713671863</v>
+        <v>3.8748589804207647</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.9262090896116177</v>
+        <v>3.9253270985052273</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.9767054655513725</v>
+        <v>3.9757952165896899</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>5.1171041191999329</v>
+        <v>5.1159308203583755</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34A0D323-20AC-47FE-A1CB-A7FA48627CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15537E5F-502D-4969-A4F9-128376DB876E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.7541901014805386E-2</v>
+        <v>6.0375126757766261E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>5.78</v>
+        <v>5.5</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>52408.714849120006</v>
+        <v>49869.884372</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4325,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.8156105312907858</v>
+        <v>1.7304093106443672</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>16.211948029326066</v>
+        <v>15.451169361572431</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.7541901014805386E-2</v>
+        <v>6.0375126757766261E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4570,20 +4570,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.8666933410242654</v>
+        <v>3.9167442445859488</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>6.7169711765648961</v>
+        <v>6.801993561682405</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.5490509894403122</v>
+        <v>4.607934405395234</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.8408445013607793</v>
+        <v>5.9147770101586135</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9735,7 +9735,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9829,11 +9829,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>8842801.7074087597</v>
+        <v>8964335.625380313</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.6730181366256941</v>
+        <v>0.66852415516185282</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -9855,7 +9855,7 @@
       <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.04094745967344</v>
+        <v>1.0535756687132707</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -10921,11 +10921,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.8156105312907858</v>
+        <v>1.7304093106443672</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2589848.5925912405</v>
+        <v>2468314.6746196873</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11606,17 +11606,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1682901906117825E-2</v>
+        <v>6.4720020640446352E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1682901906117825E-2</v>
+        <v>6.4720020640446352E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1682901906117825E-2</v>
+        <v>6.4720020640446352E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11657,17 +11657,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7541901014805386E-2</v>
+        <v>6.0375126757766261E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7541901014805386E-2</v>
+        <v>6.0375126757766261E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.7541901014805386E-2</v>
+        <v>6.0375126757766261E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11727,14 +11727,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2590680731882813</v>
+        <v>7.3517809129132869</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.2590680731882813</v>
+        <v>7.3517809129132869</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11755,14 +11755,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6407033418192576</v>
+        <v>6.7194313625158291</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.6407033418192576</v>
+        <v>6.7194313625158291</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11805,21 +11805,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32724071.967485119</v>
+        <v>33142023.915156886</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6090397659357971</v>
+        <v>3.6551344329105091</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6090397659357971</v>
+        <v>3.6551344329105091</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.7998970416873394</v>
+        <v>4.8612013414453425</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11829,14 +11829,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-2764324.1644752934</v>
+        <v>-2630412.2672342751</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.3048690225788942</v>
+        <v>-0.29010028100067786</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11846,18 +11846,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>12202856.791973764</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>12183448.044667618</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>1.1439440099144842</v>
+        <v>1.1421245572568561</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3458164822523344</v>
+        <v>1.3436759497139485</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11868,27 +11868,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>42162604.594983593</v>
+        <v>42695059.692590229</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.8666933410242654</v>
+        <v>3.9167442445859488</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4481147532713869</v>
+        <v>4.5071587091666867</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>4.5490509894403122</v>
+        <v>4.607934405395234</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6499872256092374</v>
+        <v>4.7087101016237805</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.8408445013607793</v>
+        <v>5.9147770101586135</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11929,27 +11929,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>29936467.309772234</v>
+        <v>30291375.321263131</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8063627264346205</v>
+        <v>2.8396332056950757</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.301603207570142</v>
+        <v>3.3407449478765598</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>3.301603207570142</v>
+        <v>3.3407449478765598</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.301603207570142</v>
+        <v>3.3407449478765598</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.3910171393559727</v>
+        <v>4.4430742890932944</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11990,27 +11990,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35134321.69297988</v>
+        <v>35579458.903576605</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.3365280337294427</v>
+        <v>3.3781887251405123</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.8748589804207647</v>
+        <v>3.9239518285216235</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>3.9253270985052273</v>
+        <v>3.9743396766358972</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>3.9757952165896899</v>
+        <v>4.0247275247501699</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>5.1159308203583755</v>
+        <v>5.1789256496259544</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B9C0AFD-CB7F-4710-88A6-ADB33C5A6923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CE7883-D227-4346-B939-82EC7DC6A39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1734111568041275E-2</v>
+        <v>6.1501187818169815E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.37</v>
+        <v>5.39</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>48691.14165048</v>
+        <v>48872.486684559997</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4538,7 +4538,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4669,7 +4669,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6923169187884919</v>
+        <v>1.6987262389443978</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.111034808243346</v>
+        <v>15.168264904390112</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1734111568041275E-2</v>
+        <v>6.1501187818169815E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4788,20 +4788,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1837639620153011</v>
+        <v>3.497533898259285</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.5776553527752455</v>
+        <v>6.1244127922069582</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.9220752494297662</v>
+        <v>4.1147457626579822</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.7197003067610837</v>
+        <v>5.3255763410495289</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -10034,11 +10034,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>9018671.9082648568</v>
+        <v>9009529.4360775873</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.6665149526925116</v>
+        <v>0.66685301552492093</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10060,7 +10060,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0582029194172651</v>
+        <v>1.057063937174783</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11126,11 +11126,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6923169187884919</v>
+        <v>1.6987262389443978</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2413978.3917351435</v>
+        <v>2423120.863922413</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3414462846852</v>
+        <v>1.3413622125554474</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.4156131860246173</v>
+        <v>1.4672301912778432</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.93078864865594979</v>
+        <v>0.72947271643060341</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11838,17 +11838,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6176804744998791E-2</v>
+        <v>6.5927118645625213E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6176804744998791E-2</v>
+        <v>6.5927118645625213E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6176804744998791E-2</v>
+        <v>6.5927118645625213E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11889,17 +11889,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1734111568041275E-2</v>
+        <v>6.1501187818169815E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1734111568041275E-2</v>
+        <v>6.1501187818169815E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1734111568041275E-2</v>
+        <v>6.1501187818169815E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11952,21 +11952,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5010257621037457</v>
+        <v>7.3808186527602082</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>6.5010257621037457</v>
+        <v>7.3808186527602082</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11987,14 +11987,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.9890910777152451</v>
+        <v>6.7435535208331032</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.9890910777152451</v>
+        <v>6.7435535208331032</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12037,21 +12037,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>38758239.118391126</v>
+        <v>33272926.818800058</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.2745299660417508</v>
+        <v>3.6695713216080428</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.2745299660417508</v>
+        <v>3.6695713216080428</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.0721550233730683</v>
+        <v>4.8804018999995904</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12061,14 +12061,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-2568238.8863723744</v>
+        <v>-2577804.0218895897</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.28324336526793459</v>
+        <v>-0.28429827538066432</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12079,17 +12079,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>12163231.110636348</v>
+        <v>12162468.807474591</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.93078864865594979</v>
+        <v>0.72947271643060341</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.93078864865594979</v>
+        <v>0.72947271643060341</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12101,23 +12101,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1837639620153011</v>
+        <v>3.497533898259285</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.9220752494297662</v>
+        <v>4.1147457626579822</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.9220752494297662</v>
+        <v>4.1147457626579822</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.9220752494297662</v>
+        <v>4.1147457626579822</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.7197003067610837</v>
+        <v>5.3255763410495289</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12156,23 +12156,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.3472359109446601</v>
+        <v>2.8498272352275271</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.9379246011113649</v>
+        <v>3.3527379237970907</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.9379246011113649</v>
+        <v>3.3527379237970907</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.9379246011113649</v>
+        <v>3.3527379237970907</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.6727392732930735</v>
+        <v>4.4590245288732264</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12211,23 +12211,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.7654999364799808</v>
+        <v>3.173680566743406</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>4.4299999252705655</v>
+        <v>3.7337418432275364</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.4299999252705655</v>
+        <v>3.7337418432275364</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.4299999252705655</v>
+        <v>3.7337418432275364</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>5.1962197900270786</v>
+        <v>4.8923004349613777</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CE7883-D227-4346-B939-82EC7DC6A39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{256C575E-492B-4A9B-9D9D-054997AD2285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3655,7 +3656,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1501187818169815E-2</v>
+        <v>6.1730242521403217E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4353,7 +4354,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4376,6 +4377,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4394,8 +4398,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4431,24 +4435,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4458,7 +4465,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
@@ -4487,11 +4494,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>48872.486684559997</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>48691.14165048</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4514,11 +4521,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4586,10 +4593,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4636,7 +4643,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4710,7 +4717,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6987262389443978</v>
+        <v>1.6924229875939547</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4726,7 +4733,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.168264904390112</v>
+        <v>15.111981917731894</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4765,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1501187818169815E-2</v>
+        <v>6.1730242521403217E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4777,10 +4784,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4788,22 +4795,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.497533898259285</v>
+        <v>3.7988130927332793</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.1244127922069582</v>
+        <v>6.8315936717021337</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.1147457626579822</v>
-      </c>
-      <c r="G29" s="312">
+        <v>4.4691918738038581</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.3255763410495289</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>5.9405162362627255</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5785,15 +5792,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5821,7 +5829,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10034,11 +10042,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>9009529.4360775873</v>
+        <v>9018520.6081144065</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.66685301552492093</v>
+        <v>0.66652054734528787</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10060,7 +10068,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.057063937174783</v>
+        <v>1.0581188472875129</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11126,11 +11134,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6987262389443978</v>
+        <v>1.6924229875939547</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2423120.863922413</v>
+        <v>2414129.6918855952</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11838,17 +11846,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5927118645625213E-2</v>
+        <v>6.6172657262554918E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5927118645625213E-2</v>
+        <v>6.6172657262554918E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5927118645625213E-2</v>
+        <v>6.6172657262554918E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11889,17 +11897,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1501187818169815E-2</v>
+        <v>6.1730242521403217E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1501187818169815E-2</v>
+        <v>6.1730242521403217E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1501187818169815E-2</v>
+        <v>6.1730242521403217E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11948,7 +11956,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11959,14 +11967,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3808186527602082</v>
+        <v>8.091614584957485</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3808186527602082</v>
+        <v>8.091614584957485</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11987,14 +11995,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.7435535208331032</v>
+        <v>7.3924404464526239</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>6.7435535208331032</v>
+        <v>7.3924404464526239</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12037,21 +12045,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>33272926.818800058</v>
+        <v>36477213.788546465</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.6695713216080428</v>
+        <v>4.0229625226411896</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.6695713216080428</v>
+        <v>4.0229625226411896</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.8804018999995904</v>
+        <v>5.494286885100057</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12061,14 +12069,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-2577804.0218895897</v>
+        <v>-2568238.8863723744</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.28429827538066432</v>
+        <v>-0.28324336526793459</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12101,23 +12109,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.497533898259285</v>
+        <v>3.7988130927332793</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.1147457626579822</v>
+        <v>4.4691918738038581</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.1147457626579822</v>
+        <v>4.4691918738038581</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.1147457626579822</v>
+        <v>4.4691918738038581</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.3255763410495289</v>
+        <v>5.9405162362627255</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12156,23 +12164,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.8498272352275271</v>
+        <v>3.1240469959961961</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.3527379237970907</v>
+        <v>3.6753494070543482</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.3527379237970907</v>
+        <v>3.6753494070543482</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.3527379237970907</v>
+        <v>3.6753494070543482</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>4.4590245288732264</v>
+        <v>5.0195406821939317</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12211,23 +12219,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.173680566743406</v>
+        <v>3.4614300443647377</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.7337418432275364</v>
+        <v>4.0722706404291031</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>3.7337418432275364</v>
+        <v>4.0722706404291031</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>3.7337418432275364</v>
+        <v>4.0722706404291031</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.8923004349613777</v>
+        <v>5.480028459228329</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{256C575E-492B-4A9B-9D9D-054997AD2285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E8CDFB-2F33-4AB1-8496-92E542CD84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.1730242521403217E-2</v>
+        <v>6.1615502293668273E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4435,27 +4435,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4465,40 +4465,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>48691.14165048</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>48781.814167519995</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4521,11 +4521,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4676,7 +4676,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6924229875939547</v>
+        <v>1.6955746132691762</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.111981917731894</v>
+        <v>15.140123411061003</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1730242521403217E-2</v>
+        <v>6.1615502293668273E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4784,10 +4784,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4795,22 +4795,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>3.7988130927332793</v>
+        <v>4.1458519452427636</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>6.8315936717021337</v>
+        <v>7.0216234101712001</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.4691918738038581</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.8774728767561921</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>5.9405162362627255</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>6.1057594871053915</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5793,15 +5793,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10042,11 +10042,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>9018520.6081144065</v>
+        <v>9014025.0220959969</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>0.66652054734528787</v>
+        <v>0.6666867814351044</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10068,7 +10068,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="177">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0581188472875129</v>
+        <v>1.0575913922311477</v>
       </c>
       <c r="E7" s="173" t="str">
         <f>Dashboard!H3</f>
@@ -11134,11 +11134,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6924229875939547</v>
+        <v>1.6955746132691765</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2414129.6918855952</v>
+        <v>2418625.2779040043</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11174,7 +11174,7 @@
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11185,11 +11185,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11201,11 +11201,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.4672301912778432</v>
+        <v>1.4411454584793664</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.72947271643060341</v>
+        <v>0.8239795932572378</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11846,17 +11846,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6172657262554918E-2</v>
+        <v>6.6049659758349422E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6172657262554918E-2</v>
+        <v>6.6049659758349422E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6172657262554918E-2</v>
+        <v>6.6049659758349422E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11897,17 +11897,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1730242521403217E-2</v>
+        <v>6.1615502293668273E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1730242521403217E-2</v>
+        <v>6.1615502293668273E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1730242521403217E-2</v>
+        <v>6.1615502293668273E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11960,21 +11960,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.091614584957485</v>
+        <v>7.5859020254875178</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>8.091614584957485</v>
+        <v>7.5859020254875178</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11995,14 +11995,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3924404464526239</v>
+        <v>6.9596259869649151</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.3924404464526239</v>
+        <v>6.9596259869649151</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12045,21 +12045,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>36477213.788546465</v>
+        <v>39327065.336089432</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.0229625226411896</v>
+        <v>4.3372641038232542</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.0229625226411896</v>
+        <v>4.3372641038232542</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.494286885100057</v>
+        <v>5.5655507141724536</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12069,14 +12069,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-2568238.8863723744</v>
+        <v>-2573021.4541309825</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.28324336526793459</v>
+        <v>-0.28377082032429951</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12092,12 +12092,12 @@
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.72947271643060341</v>
+        <v>0.8239795932572378</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>0.72947271643060341</v>
+        <v>0.8239795932572378</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12109,23 +12109,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.7988130927332793</v>
+        <v>4.1458519452427636</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.4691918738038581</v>
+        <v>4.8774728767561921</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>4.4691918738038581</v>
+        <v>4.8774728767561921</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.4691918738038581</v>
+        <v>4.8774728767561921</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>5.9405162362627255</v>
+        <v>6.1057594871053915</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12164,23 +12164,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.1240469959961961</v>
+        <v>3.382310434236687</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>3.6753494070543482</v>
+        <v>3.9791887461608084</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>3.6753494070543482</v>
+        <v>3.9791887461608084</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>3.6753494070543482</v>
+        <v>3.9791887461608084</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.0195406821939317</v>
+        <v>5.1060706099267676</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12219,23 +12219,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.4614300443647377</v>
+        <v>3.7640811897397253</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>4.0722706404291031</v>
+        <v>4.4283308114585003</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>4.0722706404291031</v>
+        <v>4.4283308114585003</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>4.0722706404291031</v>
+        <v>4.4283308114585003</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>5.480028459228329</v>
+        <v>5.6059150485160796</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEE5EFD-5426-45D7-83E4-410AE5585A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0E9CCD-B042-4CE9-9057-D7AC7FC1A322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.16135736675806E-2</v>
+        <v>6.5418033311431298E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4461,27 +4461,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.38</v>
+        <v>5.07</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4491,7 +4491,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
@@ -4520,11 +4520,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>48781.814167519995</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>45970.966139279997</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4547,11 +4547,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.6956276880908117</v>
+        <v>1.5970165439797264</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>15.140597326713724</v>
+        <v>14.26007878163526</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.16135736675806E-2</v>
+        <v>6.5418033311431298E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4810,10 +4810,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4821,22 +4821,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1764071157695453</v>
+        <v>4.2500586722459941</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>7.0866373761961716</v>
+        <v>7.2092161286685661</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.9134201361994654</v>
-      </c>
-      <c r="G29" s="313">
+        <v>5.000069026171758</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.1622933706053669</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>6.2688835901465794</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5819,15 +5819,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10170,11 +10170,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>9013949.3143658713</v>
+        <v>9154611.6031048242</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>0.66668958089340813</v>
+        <v>0.66148828623587641</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10196,7 +10196,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0575494062688517</v>
+        <v>1.0746628738780892</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11262,11 +11262,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.6956276880908119</v>
+        <v>1.5970165439797264</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2418700.985634129</v>
+        <v>2278038.696895177</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3413202265931514</v>
+        <v>1.3420825874550777</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.4411003492029038</v>
+        <v>1.441919421697718</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.82395380188201395</v>
+        <v>0.82442210923930004</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11974,17 +11974,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6047592338752903E-2</v>
+        <v>7.0125839787634467E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6047592338752903E-2</v>
+        <v>7.0125839787634467E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6047592338752903E-2</v>
+        <v>7.0125839787634467E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12025,17 +12025,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.16135736675806E-2</v>
+        <v>6.5418033311431298E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.16135736675806E-2</v>
+        <v>6.5418033311431298E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.16135736675806E-2</v>
+        <v>6.5418033311431298E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12095,14 +12095,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.648819116200638</v>
+        <v>7.7709513059274622</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.648819116200638</v>
+        <v>7.7709513059274622</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12123,14 +12123,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0173522180202816</v>
+        <v>7.1225312956227347</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.0173522180202816</v>
+        <v>7.1225312956227347</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12173,21 +12173,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>39653242.042421535</v>
+        <v>40286403.476472318</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.3732371546417514</v>
+        <v>4.4430666305094473</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.3732371546417514</v>
+        <v>4.4430666305094473</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.6221103890476529</v>
+        <v>5.7118811944842687</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12197,14 +12197,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-2573021.454130982</v>
+        <v>-2424761.8536141412</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.28377082032429946</v>
+        <v>-0.26741971357698857</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>12162088.110186419</v>
+        <v>12169000.628010781</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.82395380188201395</v>
+        <v>0.82442210923930004</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>0.82395380188201395</v>
+        <v>0.82442210923930004</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12237,23 +12237,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1764071157695453</v>
+        <v>4.2500586722459941</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.9134201361994654</v>
+        <v>5.000069026171758</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.9134201361994654</v>
+        <v>5.000069026171758</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.9134201361994654</v>
+        <v>5.000069026171758</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.1622933706053669</v>
+        <v>6.2688835901465794</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12292,23 +12292,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4103648202041827</v>
+        <v>3.4614808273437134</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.012193906122568</v>
+        <v>4.0723303851102512</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>4.012193906122568</v>
+        <v>4.0723303851102512</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.012193906122568</v>
+        <v>4.0723303851102512</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.1579633678323127</v>
+        <v>5.2352731297597099</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12347,23 +12347,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.7933859679868638</v>
+        <v>3.8557697497948538</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.4628070211610167</v>
+        <v>4.5361997056410051</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.4628070211610167</v>
+        <v>4.5361997056410051</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>4.4628070211610167</v>
+        <v>4.5361997056410051</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>5.6601283692188398</v>
+        <v>5.7520783599531446</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/6186.HK_Valuation.xlsx
+++ b/financial_models/opportunities/6186.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0E9CCD-B042-4CE9-9057-D7AC7FC1A322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BE8E19-D287-4629-A7C3-31385A22D99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5418033311431298E-2</v>
+        <v>6.4852249373018353E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4461,27 +4461,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>6186.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>5.07</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4491,40 +4491,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>中国飞鹤</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>9067251704</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45605</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>45970.966139279997</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>46242.983690399997</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4547,11 +4547,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.5970165439797264</v>
+        <v>1.6109492343443479</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.26007878163526</v>
+        <v>14.384486548723583</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.5418033311431298E-2</v>
+        <v>6.4852249373018353E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4810,10 +4810,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4821,22 +4821,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.2500586722459941</v>
+        <v>4.2277236376796861</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>7.2092161286685661</v>
+        <v>7.1716418190174442</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.000069026171758</v>
-      </c>
-      <c r="G29" s="314">
+        <v>4.9737925149172781</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>6.2688835901465794</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>6.2362102774064736</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5819,15 +5819,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10170,11 +10170,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>9154611.6031048242</v>
+        <v>9134737.5398572553</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>0.66148828623587641</v>
+        <v>0.66222317303403511</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -10196,7 +10196,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="171">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>1.0746628738780892</v>
+        <v>1.0693458122704533</v>
       </c>
       <c r="E7" s="167" t="str">
         <f>Dashboard!H3</f>
@@ -11262,11 +11262,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.5970165439797264</v>
+        <v>1.6109492343443479</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>2278038.696895177</v>
+        <v>2297912.7601427455</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11302,7 +11302,7 @@
         <f>I15+I34</f>
         <v>1358347</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11313,11 +11313,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11329,11 +11329,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>1.3420825874550777</v>
+        <v>1.3383478910165365</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>1.441919421697718</v>
+        <v>1.4379069031096561</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>0.82442210923930004</v>
+        <v>0.82212793871357326</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11974,17 +11974,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0125839787634467E-2</v>
+        <v>6.95193392279084E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0125839787634467E-2</v>
+        <v>6.95193392279084E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0125839787634467E-2</v>
+        <v>6.95193392279084E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12025,17 +12025,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5418033311431298E-2</v>
+        <v>6.4852249373018353E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5418033311431298E-2</v>
+        <v>6.4852249373018353E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.5418033311431298E-2</v>
+        <v>6.4852249373018353E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12095,14 +12095,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7709513059274622</v>
+        <v>7.7317736086737696</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>7.7709513059274622</v>
+        <v>7.7317736086737696</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12123,14 +12123,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1225312956227347</v>
+        <v>7.0876355895241634</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>7.1225312956227347</v>
+        <v>7.0876355895241634</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12173,21 +12173,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>40286403.476472318</v>
+        <v>40083297.259909436</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.4430666305094473</v>
+        <v>4.4206666549497875</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.4430666305094473</v>
+        <v>4.4206666549497875</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>5.7118811944842687</v>
+        <v>5.683084417438983</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12197,14 +12197,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-2424761.8536141412</v>
+        <v>-2439109.5568899647</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.26741971357698857</v>
+        <v>-0.26900207874608312</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>12169000.628010781</v>
+        <v>12135137.195364496</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>0.82442210923930004</v>
+        <v>0.82212793871357326</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>0.82442210923930004</v>
+        <v>0.82212793871357326</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12237,23 +12237,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.2500586722459941</v>
+        <v>4.2277236376796861</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.000069026171758</v>
+        <v>4.9737925149172781</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>5.000069026171758</v>
+        <v>4.9737925149172781</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.000069026171758</v>
+        <v>4.9737925149172781</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>6.2688835901465794</v>
+        <v>6.2362102774064736</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12292,23 +12292,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4614808273437134</v>
+        <v>3.4445218541074629</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0723303851102512</v>
+        <v>4.0523786518911331</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>4.0723303851102512</v>
+        <v>4.0523786518911331</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.0723303851102512</v>
+        <v>4.0523786518911331</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.2352731297597099</v>
+        <v>5.2096237440428492</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12347,23 +12347,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.8557697497948538</v>
+        <v>3.8361227458935745</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>4.5361997056410051</v>
+        <v>4.5130855834042052</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>4.5361997056410051</v>
+        <v>4.5130855834042052</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>4.5361997056410051</v>
+        <v>4.5130855834042052</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>5.7520783599531446</v>
+        <v>5.722917010724661</v>
       </c>
       <c r="K106" s="75"/>
     </row>
